--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\132860_2_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\132860_2_21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913655EF-D666-4A21-A2A0-13857E6EDB71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE22D18-C7BB-40E8-B64B-5AE52E755FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,42 +28,47 @@
     <t>code</t>
   </si>
   <si>
-    <t>철거</t>
-  </si>
-  <si>
-    <t>마킹</t>
-  </si>
-  <si>
-    <t>칸막이A</t>
-  </si>
-  <si>
-    <t>칸막이B</t>
-  </si>
-  <si>
-    <t>방통</t>
-  </si>
-  <si>
-    <t>천정</t>
+    <t>productivity</t>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>바닥</t>
+    <t>b</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>도어</t>
+    <t>c</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>가구</t>
+    <t>d</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>가전</t>
+    <t>e</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>productivity</t>
+    <t>f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -984,7 +989,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -997,12 +1002,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1013,7 +1018,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>110</v>
@@ -1024,7 +1029,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -1035,7 +1040,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>130</v>
@@ -1046,7 +1051,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>140</v>
@@ -1057,7 +1062,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -1068,7 +1073,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>160</v>
@@ -1079,7 +1084,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>170</v>
@@ -1090,7 +1095,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>180</v>
@@ -1101,7 +1106,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>190</v>
@@ -1113,5 +1118,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\132860_2_21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py.navi_pj\cns\navi-master\navi\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE22D18-C7BB-40E8-B64B-5AE52E755FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550"/>
   </bookViews>
   <sheets>
     <sheet name="activity_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -68,13 +67,17 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -985,16 +988,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2000" max="2000" width="2.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1113,6 +1119,17 @@
       </c>
       <c r="C11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py.navi_pj\cns\navi-master\navi\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\393970_2_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C39417-2B6E-403E-8589-92580E2D5E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activity_list" sheetId="1" r:id="rId1"/>
@@ -19,65 +20,308 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
+  <si>
+    <t>name_major</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_middle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_minor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>productivity</t>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>가설공사</t>
+  </si>
+  <si>
+    <t>가설휀스A</t>
+  </si>
+  <si>
+    <t>가설휀스B</t>
+  </si>
+  <si>
+    <t>가설휀스C</t>
+  </si>
+  <si>
+    <t>매직판넬</t>
+  </si>
+  <si>
+    <t>타워크레인설치</t>
+  </si>
+  <si>
+    <t>타워크레인연장</t>
+  </si>
+  <si>
+    <t>타워크레인</t>
+  </si>
+  <si>
+    <t>리프트카설치</t>
+  </si>
+  <si>
+    <t>리프트카연장</t>
+  </si>
+  <si>
+    <t>리프트카</t>
+  </si>
+  <si>
+    <t>기준선측량, 마킹</t>
+  </si>
+  <si>
+    <t>굴착</t>
+  </si>
+  <si>
+    <t>다짐</t>
+  </si>
+  <si>
+    <t>기초설치</t>
+  </si>
+  <si>
+    <t>되메우기</t>
+  </si>
+  <si>
+    <t>철골설치</t>
+  </si>
+  <si>
+    <t>판넬설치</t>
+  </si>
+  <si>
+    <t>이미지 랩핑</t>
+  </si>
+  <si>
+    <t>검사</t>
+  </si>
+  <si>
+    <t>지반보강</t>
+  </si>
+  <si>
+    <t>프레임설치</t>
+  </si>
+  <si>
+    <t>기초거푸집</t>
+  </si>
+  <si>
+    <t>기초철근</t>
+  </si>
+  <si>
+    <t>기초타설</t>
+  </si>
+  <si>
+    <t>양생1</t>
+  </si>
+  <si>
+    <t>양생2</t>
+  </si>
+  <si>
+    <t>양생3</t>
+  </si>
+  <si>
+    <t>양생4</t>
+  </si>
+  <si>
+    <t>양생5</t>
+  </si>
+  <si>
+    <t>양생6</t>
+  </si>
+  <si>
+    <t>설치</t>
+  </si>
+  <si>
+    <t>설치,보강</t>
+  </si>
+  <si>
+    <t>해체장비설치</t>
+  </si>
+  <si>
+    <t>해체</t>
+  </si>
+  <si>
+    <t>T10010</t>
+  </si>
+  <si>
+    <t>T10020</t>
+  </si>
+  <si>
+    <t>T10030</t>
+  </si>
+  <si>
+    <t>T10040</t>
+  </si>
+  <si>
+    <t>T10050</t>
+  </si>
+  <si>
+    <t>T10060</t>
+  </si>
+  <si>
+    <t>T10070</t>
+  </si>
+  <si>
+    <t>T10080</t>
+  </si>
+  <si>
+    <t>T10090</t>
+  </si>
+  <si>
+    <t>T11010</t>
+  </si>
+  <si>
+    <t>T11020</t>
+  </si>
+  <si>
+    <t>T11030</t>
+  </si>
+  <si>
+    <t>T11040</t>
+  </si>
+  <si>
+    <t>T11050</t>
+  </si>
+  <si>
+    <t>T11060</t>
+  </si>
+  <si>
+    <t>T11070</t>
+  </si>
+  <si>
+    <t>T11080</t>
+  </si>
+  <si>
+    <t>T12010</t>
+  </si>
+  <si>
+    <t>T12020</t>
+  </si>
+  <si>
+    <t>T12030</t>
+  </si>
+  <si>
+    <t>T12040</t>
+  </si>
+  <si>
+    <t>T12050</t>
+  </si>
+  <si>
+    <t>T12060</t>
+  </si>
+  <si>
+    <t>T20010</t>
+  </si>
+  <si>
+    <t>T20020</t>
+  </si>
+  <si>
+    <t>T20030</t>
+  </si>
+  <si>
+    <t>T20040</t>
+  </si>
+  <si>
+    <t>T20050</t>
+  </si>
+  <si>
+    <t>T20060</t>
+  </si>
+  <si>
+    <t>T30010</t>
+  </si>
+  <si>
+    <t>T30020</t>
+  </si>
+  <si>
+    <t>T30030</t>
+  </si>
+  <si>
+    <t>T30031</t>
+  </si>
+  <si>
+    <t>T30032</t>
+  </si>
+  <si>
+    <t>T30033</t>
+  </si>
+  <si>
+    <t>T30034</t>
+  </si>
+  <si>
+    <t>T30035</t>
+  </si>
+  <si>
+    <t>T30036</t>
+  </si>
+  <si>
+    <t>T30040</t>
+  </si>
+  <si>
+    <t>T30050</t>
+  </si>
+  <si>
+    <t>T31010</t>
+  </si>
+  <si>
+    <t>T31020</t>
+  </si>
+  <si>
+    <t>T32010</t>
+  </si>
+  <si>
+    <t>T32020</t>
+  </si>
+  <si>
+    <t>T35010</t>
+  </si>
+  <si>
+    <t>T35020</t>
+  </si>
+  <si>
+    <t>T35030</t>
+  </si>
+  <si>
+    <t>T35031</t>
+  </si>
+  <si>
+    <t>T35032</t>
+  </si>
+  <si>
+    <t>T35033</t>
+  </si>
+  <si>
+    <t>T35034</t>
+  </si>
+  <si>
+    <t>T35035</t>
+  </si>
+  <si>
+    <t>T35036</t>
+  </si>
+  <si>
+    <t>T35040</t>
+  </si>
+  <si>
+    <t>T35050</t>
+  </si>
+  <si>
+    <t>T36010</t>
+  </si>
+  <si>
+    <t>T37010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -988,19 +1232,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2000" max="2000" width="2.6640625" customWidth="1"/>
+    <col min="2000" max="2000" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,126 +1254,823 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>110</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>120</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>130</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>140</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>160</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>170</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>180</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>190</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\393970_2_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py.navi_pj\cns\navi-master\navi\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C39417-2B6E-403E-8589-92580E2D5E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550"/>
   </bookViews>
   <sheets>
     <sheet name="activity_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="402">
   <si>
     <t>name_major</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -45,108 +44,6 @@
     <t>가설공사</t>
   </si>
   <si>
-    <t>가설휀스A</t>
-  </si>
-  <si>
-    <t>가설휀스B</t>
-  </si>
-  <si>
-    <t>가설휀스C</t>
-  </si>
-  <si>
-    <t>매직판넬</t>
-  </si>
-  <si>
-    <t>타워크레인설치</t>
-  </si>
-  <si>
-    <t>타워크레인연장</t>
-  </si>
-  <si>
-    <t>타워크레인</t>
-  </si>
-  <si>
-    <t>리프트카설치</t>
-  </si>
-  <si>
-    <t>리프트카연장</t>
-  </si>
-  <si>
-    <t>리프트카</t>
-  </si>
-  <si>
-    <t>기준선측량, 마킹</t>
-  </si>
-  <si>
-    <t>굴착</t>
-  </si>
-  <si>
-    <t>다짐</t>
-  </si>
-  <si>
-    <t>기초설치</t>
-  </si>
-  <si>
-    <t>되메우기</t>
-  </si>
-  <si>
-    <t>철골설치</t>
-  </si>
-  <si>
-    <t>판넬설치</t>
-  </si>
-  <si>
-    <t>이미지 랩핑</t>
-  </si>
-  <si>
-    <t>검사</t>
-  </si>
-  <si>
-    <t>지반보강</t>
-  </si>
-  <si>
-    <t>프레임설치</t>
-  </si>
-  <si>
-    <t>기초거푸집</t>
-  </si>
-  <si>
-    <t>기초철근</t>
-  </si>
-  <si>
-    <t>기초타설</t>
-  </si>
-  <si>
-    <t>양생1</t>
-  </si>
-  <si>
-    <t>양생2</t>
-  </si>
-  <si>
-    <t>양생3</t>
-  </si>
-  <si>
-    <t>양생4</t>
-  </si>
-  <si>
-    <t>양생5</t>
-  </si>
-  <si>
-    <t>양생6</t>
-  </si>
-  <si>
-    <t>설치</t>
-  </si>
-  <si>
-    <t>설치,보강</t>
-  </si>
-  <si>
-    <t>해체장비설치</t>
-  </si>
-  <si>
-    <t>해체</t>
-  </si>
-  <si>
     <t>T10010</t>
   </si>
   <si>
@@ -174,66 +71,6 @@
     <t>T10090</t>
   </si>
   <si>
-    <t>T11010</t>
-  </si>
-  <si>
-    <t>T11020</t>
-  </si>
-  <si>
-    <t>T11030</t>
-  </si>
-  <si>
-    <t>T11040</t>
-  </si>
-  <si>
-    <t>T11050</t>
-  </si>
-  <si>
-    <t>T11060</t>
-  </si>
-  <si>
-    <t>T11070</t>
-  </si>
-  <si>
-    <t>T11080</t>
-  </si>
-  <si>
-    <t>T12010</t>
-  </si>
-  <si>
-    <t>T12020</t>
-  </si>
-  <si>
-    <t>T12030</t>
-  </si>
-  <si>
-    <t>T12040</t>
-  </si>
-  <si>
-    <t>T12050</t>
-  </si>
-  <si>
-    <t>T12060</t>
-  </si>
-  <si>
-    <t>T20010</t>
-  </si>
-  <si>
-    <t>T20020</t>
-  </si>
-  <si>
-    <t>T20030</t>
-  </si>
-  <si>
-    <t>T20040</t>
-  </si>
-  <si>
-    <t>T20050</t>
-  </si>
-  <si>
-    <t>T20060</t>
-  </si>
-  <si>
     <t>T30010</t>
   </si>
   <si>
@@ -267,12 +104,6 @@
     <t>T30050</t>
   </si>
   <si>
-    <t>T31010</t>
-  </si>
-  <si>
-    <t>T31020</t>
-  </si>
-  <si>
     <t>T32010</t>
   </si>
   <si>
@@ -312,16 +143,1099 @@
     <t>T35050</t>
   </si>
   <si>
-    <t>T36010</t>
-  </si>
-  <si>
     <t>T37010</t>
+  </si>
+  <si>
+    <t>M00009</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>project_completion</t>
+  </si>
+  <si>
+    <t>M00001</t>
+  </si>
+  <si>
+    <t>project_start</t>
+  </si>
+  <si>
+    <t>M00007</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>fence-line_marking</t>
+  </si>
+  <si>
+    <t>excavation</t>
+  </si>
+  <si>
+    <t>fence-excavation</t>
+  </si>
+  <si>
+    <t>fence-compaction</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>fence-foundation</t>
+  </si>
+  <si>
+    <t>fence-backfilling</t>
+  </si>
+  <si>
+    <t>fence-steel</t>
+  </si>
+  <si>
+    <t>fence-panel</t>
+  </si>
+  <si>
+    <t>fence-wrapping</t>
+  </si>
+  <si>
+    <t>fence-inspection</t>
+  </si>
+  <si>
+    <t>t-crane_installation</t>
+  </si>
+  <si>
+    <t>t-crane_installation-form</t>
+  </si>
+  <si>
+    <t>t-crane_installation-rebar</t>
+  </si>
+  <si>
+    <t>t-crane_installation-casting</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing1</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing2</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing3</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing4</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing5</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing6</t>
+  </si>
+  <si>
+    <t>t-crane_installation-installation</t>
+  </si>
+  <si>
+    <t>t-crane_installation-inspection</t>
+  </si>
+  <si>
+    <t>t-crane_dismantling</t>
+  </si>
+  <si>
+    <t>t-crane_dismantling-machine</t>
+  </si>
+  <si>
+    <t>t-crane_dismantling-dismantling</t>
+  </si>
+  <si>
+    <t>lift_installation</t>
+  </si>
+  <si>
+    <t>lift_installation-form</t>
+  </si>
+  <si>
+    <t>lift_installation-rebar</t>
+  </si>
+  <si>
+    <t>lift_installation-casting</t>
+  </si>
+  <si>
+    <t>lift_installation-curing1</t>
+  </si>
+  <si>
+    <t>lift_installation-curing2</t>
+  </si>
+  <si>
+    <t>lift_installation-curing3</t>
+  </si>
+  <si>
+    <t>lift_installation-curing4</t>
+  </si>
+  <si>
+    <t>lift_installation-curing5</t>
+  </si>
+  <si>
+    <t>lift_installation-curing6</t>
+  </si>
+  <si>
+    <t>lift_installation-installation</t>
+  </si>
+  <si>
+    <t>lift_installation-inspection</t>
+  </si>
+  <si>
+    <t>lift_dismantling</t>
+  </si>
+  <si>
+    <t>lift_dismantling-dismantling</t>
+  </si>
+  <si>
+    <t>W10010</t>
+  </si>
+  <si>
+    <t>흙막이공사</t>
+  </si>
+  <si>
+    <t>CIP</t>
+  </si>
+  <si>
+    <t>CIP-line_marking</t>
+  </si>
+  <si>
+    <t>W10020</t>
+  </si>
+  <si>
+    <t>CIP-guidebeam</t>
+  </si>
+  <si>
+    <t>W10030</t>
+  </si>
+  <si>
+    <t>CIP-soil_compaction_for_machine</t>
+  </si>
+  <si>
+    <t>W10040</t>
+  </si>
+  <si>
+    <t>CIP-dig&amp;rebar_1</t>
+  </si>
+  <si>
+    <t>W10050</t>
+  </si>
+  <si>
+    <t>CIP-casting_1</t>
+  </si>
+  <si>
+    <t>CIP-dig&amp;rebar_2</t>
+  </si>
+  <si>
+    <t>CIP-casting_2</t>
+  </si>
+  <si>
+    <t>CIP-dig&amp;rebar_3</t>
+  </si>
+  <si>
+    <t>CIP-casting_3</t>
+  </si>
+  <si>
+    <t>W10060</t>
+  </si>
+  <si>
+    <t>CIP-capbeam</t>
+  </si>
+  <si>
+    <t>W10070</t>
+  </si>
+  <si>
+    <t>CIP-capbeam_casting</t>
+  </si>
+  <si>
+    <t>W11010</t>
+  </si>
+  <si>
+    <t>waterblock</t>
+  </si>
+  <si>
+    <t>waterblock-line_marking</t>
+  </si>
+  <si>
+    <t>W11020</t>
+  </si>
+  <si>
+    <t>waterblock-dig&amp;piping</t>
+  </si>
+  <si>
+    <t>W11030</t>
+  </si>
+  <si>
+    <t>waterblock-injection</t>
+  </si>
+  <si>
+    <t>W11040</t>
+  </si>
+  <si>
+    <t>waterblock-cleaning</t>
+  </si>
+  <si>
+    <t>D10010</t>
+  </si>
+  <si>
+    <t>토공사</t>
+  </si>
+  <si>
+    <t>excavation_test</t>
+  </si>
+  <si>
+    <t>excavation_test-planning</t>
+  </si>
+  <si>
+    <t>D10020</t>
+  </si>
+  <si>
+    <t>excavation_test-excavation</t>
+  </si>
+  <si>
+    <t>D10030</t>
+  </si>
+  <si>
+    <t>excavation_test-inspection</t>
+  </si>
+  <si>
+    <t>D11010</t>
+  </si>
+  <si>
+    <t>excavation-0</t>
+  </si>
+  <si>
+    <t>R10010</t>
+  </si>
+  <si>
+    <t>흙막이지지공사</t>
+  </si>
+  <si>
+    <t>post_pile</t>
+  </si>
+  <si>
+    <t>post_pile-line_marking</t>
+  </si>
+  <si>
+    <t>R10020</t>
+  </si>
+  <si>
+    <t>post_pile-dig&amp;piling</t>
+  </si>
+  <si>
+    <t>R11010</t>
+  </si>
+  <si>
+    <t>strut_installation</t>
+  </si>
+  <si>
+    <t>strut_installation-wale</t>
+  </si>
+  <si>
+    <t>R11020</t>
+  </si>
+  <si>
+    <t>strut_installation-strut</t>
+  </si>
+  <si>
+    <t>R11030</t>
+  </si>
+  <si>
+    <t>strut_installation-inspection</t>
+  </si>
+  <si>
+    <t>R12010</t>
+  </si>
+  <si>
+    <t>strut_dismatling</t>
+  </si>
+  <si>
+    <t>strut_dismatling-check</t>
+  </si>
+  <si>
+    <t>R12020</t>
+  </si>
+  <si>
+    <t>strut_dismatling-remove</t>
+  </si>
+  <si>
+    <t>F20010</t>
+  </si>
+  <si>
+    <t>기초공사</t>
+  </si>
+  <si>
+    <t>foundation-vapor_proof&amp;lean_conc.</t>
+  </si>
+  <si>
+    <t>F20020</t>
+  </si>
+  <si>
+    <t>foundation-line_marking</t>
+  </si>
+  <si>
+    <t>F20030</t>
+  </si>
+  <si>
+    <t>foundation-re-bar</t>
+  </si>
+  <si>
+    <t>F20040</t>
+  </si>
+  <si>
+    <t>foundation-form</t>
+  </si>
+  <si>
+    <t>F20050</t>
+  </si>
+  <si>
+    <t>foundation-casting</t>
+  </si>
+  <si>
+    <t>F20051</t>
+  </si>
+  <si>
+    <t>foundation-curing</t>
+  </si>
+  <si>
+    <t>F20060</t>
+  </si>
+  <si>
+    <t>foundation-dismantling</t>
+  </si>
+  <si>
+    <t>F20070</t>
+  </si>
+  <si>
+    <t>foundation-backfill</t>
+  </si>
+  <si>
+    <t>S10010</t>
+  </si>
+  <si>
+    <t>골조공사</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-line_marking</t>
+  </si>
+  <si>
+    <t>S10020</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-re-bar</t>
+  </si>
+  <si>
+    <t>S10030</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-embedding</t>
+  </si>
+  <si>
+    <t>S10040</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-form</t>
+  </si>
+  <si>
+    <t>S10050</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-inspection</t>
+  </si>
+  <si>
+    <t>S10060</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-casting</t>
+  </si>
+  <si>
+    <t>S10061</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-curing</t>
+  </si>
+  <si>
+    <t>S10070</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-dismantling</t>
+  </si>
+  <si>
+    <t>S11010</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-form</t>
+  </si>
+  <si>
+    <t>S11020</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-re-bar</t>
+  </si>
+  <si>
+    <t>S11030</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-embedding</t>
+  </si>
+  <si>
+    <t>S11040</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-inspection</t>
+  </si>
+  <si>
+    <t>S11050</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-casting</t>
+  </si>
+  <si>
+    <t>S11051</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-curing</t>
+  </si>
+  <si>
+    <t>S11060</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-dismantling</t>
+  </si>
+  <si>
+    <t>A41510</t>
+  </si>
+  <si>
+    <t>칸막이벽공사</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>benchmark-0</t>
+  </si>
+  <si>
+    <t>A44510</t>
+  </si>
+  <si>
+    <t>masonry</t>
+  </si>
+  <si>
+    <t>masonry-material_delivery</t>
+  </si>
+  <si>
+    <t>A44520</t>
+  </si>
+  <si>
+    <t>masonry-1st</t>
+  </si>
+  <si>
+    <t>A44521</t>
+  </si>
+  <si>
+    <t>masonry-2nd</t>
+  </si>
+  <si>
+    <t>A45010</t>
+  </si>
+  <si>
+    <t>plastering</t>
+  </si>
+  <si>
+    <t>plastering-surface</t>
+  </si>
+  <si>
+    <t>A45011</t>
+  </si>
+  <si>
+    <t>plastering-1st</t>
+  </si>
+  <si>
+    <t>A45012</t>
+  </si>
+  <si>
+    <t>plastering-final</t>
+  </si>
+  <si>
+    <t>A48510</t>
+  </si>
+  <si>
+    <t>drywall</t>
+  </si>
+  <si>
+    <t>drywall-line_marking</t>
+  </si>
+  <si>
+    <t>A48520</t>
+  </si>
+  <si>
+    <t>drywall-stud</t>
+  </si>
+  <si>
+    <t>A48530</t>
+  </si>
+  <si>
+    <t>drywall-gypsum_board</t>
+  </si>
+  <si>
+    <t>A50510</t>
+  </si>
+  <si>
+    <t>마감공사</t>
+  </si>
+  <si>
+    <t>ceiling_frame</t>
+  </si>
+  <si>
+    <t>ceiling_frame-hanger</t>
+  </si>
+  <si>
+    <t>A50520</t>
+  </si>
+  <si>
+    <t>ceiling_frame-frame</t>
+  </si>
+  <si>
+    <t>A51010</t>
+  </si>
+  <si>
+    <t>ceiling_board</t>
+  </si>
+  <si>
+    <t>ceiling_board-gypsum_board</t>
+  </si>
+  <si>
+    <t>A52010</t>
+  </si>
+  <si>
+    <t>grill_installation</t>
+  </si>
+  <si>
+    <t>grill_installation-0</t>
+  </si>
+  <si>
+    <t>A53010</t>
+  </si>
+  <si>
+    <t>steel_door</t>
+  </si>
+  <si>
+    <t>steel_door-frame</t>
+  </si>
+  <si>
+    <t>A53020</t>
+  </si>
+  <si>
+    <t>steel_door-door</t>
+  </si>
+  <si>
+    <t>A55010</t>
+  </si>
+  <si>
+    <t>finishing stone</t>
+  </si>
+  <si>
+    <t>finishing stone-0</t>
+  </si>
+  <si>
+    <t>A57510</t>
+  </si>
+  <si>
+    <t>inside_wall_painting</t>
+  </si>
+  <si>
+    <t>inside_wall_painting-surface</t>
+  </si>
+  <si>
+    <t>A57520</t>
+  </si>
+  <si>
+    <t>inside_wall_painting-1st</t>
+  </si>
+  <si>
+    <t>A57530</t>
+  </si>
+  <si>
+    <t>inside_wall_painting-final</t>
+  </si>
+  <si>
+    <t>A58010</t>
+  </si>
+  <si>
+    <t>glazing</t>
+  </si>
+  <si>
+    <t>glazing-0</t>
+  </si>
+  <si>
+    <t>A59010</t>
+  </si>
+  <si>
+    <t>ceiling_painting</t>
+  </si>
+  <si>
+    <t>ceiling_painting-surface</t>
+  </si>
+  <si>
+    <t>A59020</t>
+  </si>
+  <si>
+    <t>ceiling_painting-1st</t>
+  </si>
+  <si>
+    <t>A59030</t>
+  </si>
+  <si>
+    <t>ceiling_painting-final</t>
+  </si>
+  <si>
+    <t>A59510</t>
+  </si>
+  <si>
+    <t>ceiling_tex</t>
+  </si>
+  <si>
+    <t>ceiling_tex-0</t>
+  </si>
+  <si>
+    <t>A60510</t>
+  </si>
+  <si>
+    <t>inside_floor_painting</t>
+  </si>
+  <si>
+    <t>inside_floor_painting-surface</t>
+  </si>
+  <si>
+    <t>A60520</t>
+  </si>
+  <si>
+    <t>inside_floor_painting-1st</t>
+  </si>
+  <si>
+    <t>A60530</t>
+  </si>
+  <si>
+    <t>inside_floor_painting-final</t>
+  </si>
+  <si>
+    <t>A61010</t>
+  </si>
+  <si>
+    <t>stair_floor_tile</t>
+  </si>
+  <si>
+    <t>stair_floor_tile-surface</t>
+  </si>
+  <si>
+    <t>A61020</t>
+  </si>
+  <si>
+    <t>stair_floor_tile-tile</t>
+  </si>
+  <si>
+    <t>A62510</t>
+  </si>
+  <si>
+    <t>base_board</t>
+  </si>
+  <si>
+    <t>base_board-0</t>
+  </si>
+  <si>
+    <t>A64010</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>miscellaneous-0</t>
+  </si>
+  <si>
+    <t>A60020</t>
+  </si>
+  <si>
+    <t>loover</t>
+  </si>
+  <si>
+    <t>loover-0</t>
+  </si>
+  <si>
+    <t>A67010</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>furniture-0</t>
+  </si>
+  <si>
+    <t>A41810</t>
+  </si>
+  <si>
+    <t>마감공사-0</t>
+  </si>
+  <si>
+    <t>A43010</t>
+  </si>
+  <si>
+    <t>마감공사-level_marking</t>
+  </si>
+  <si>
+    <t>A43020</t>
+  </si>
+  <si>
+    <t>마감공사-casting</t>
+  </si>
+  <si>
+    <t>A43021</t>
+  </si>
+  <si>
+    <t>concreting</t>
+  </si>
+  <si>
+    <t>concreting-floor_plastering</t>
+  </si>
+  <si>
+    <t>A43022</t>
+  </si>
+  <si>
+    <t>concreting-curing</t>
+  </si>
+  <si>
+    <t>A45510</t>
+  </si>
+  <si>
+    <t>wall_insulation</t>
+  </si>
+  <si>
+    <t>wall_insulation-surface</t>
+  </si>
+  <si>
+    <t>A45520</t>
+  </si>
+  <si>
+    <t>wall_insulation-insulation</t>
+  </si>
+  <si>
+    <t>A61510</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor-floor_coating</t>
+  </si>
+  <si>
+    <t>A61520</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor-line_marking</t>
+  </si>
+  <si>
+    <t>A61530</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor-frame</t>
+  </si>
+  <si>
+    <t>A61540</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor-tile</t>
+  </si>
+  <si>
+    <t>A66510</t>
+  </si>
+  <si>
+    <t>electric_appliances</t>
+  </si>
+  <si>
+    <t>electric_appliances-0</t>
+  </si>
+  <si>
+    <t>A46010</t>
+  </si>
+  <si>
+    <t>ceiling_insulation</t>
+  </si>
+  <si>
+    <t>ceiling_insulation-surface</t>
+  </si>
+  <si>
+    <t>A46020</t>
+  </si>
+  <si>
+    <t>ceiling_insulation-insulation</t>
+  </si>
+  <si>
+    <t>A53510</t>
+  </si>
+  <si>
+    <t>wood_door</t>
+  </si>
+  <si>
+    <t>wood_door-frame</t>
+  </si>
+  <si>
+    <t>A53520</t>
+  </si>
+  <si>
+    <t>wood_door-door</t>
+  </si>
+  <si>
+    <t>A54510</t>
+  </si>
+  <si>
+    <t>floor_heating_finishing</t>
+  </si>
+  <si>
+    <t>floor_heating_finishing-surface</t>
+  </si>
+  <si>
+    <t>A54520</t>
+  </si>
+  <si>
+    <t>floor_heating_finishing-mortar_1st</t>
+  </si>
+  <si>
+    <t>A54530</t>
+  </si>
+  <si>
+    <t>floor_heating_finishing-mortar_final</t>
+  </si>
+  <si>
+    <t>A62010</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-surface</t>
+  </si>
+  <si>
+    <t>A62020</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-line_marking</t>
+  </si>
+  <si>
+    <t>A62030</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-frame</t>
+  </si>
+  <si>
+    <t>A62040</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-woodtile</t>
+  </si>
+  <si>
+    <t>A62050</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-finishing</t>
+  </si>
+  <si>
+    <t>A63010</t>
+  </si>
+  <si>
+    <t>inside_wall_paper</t>
+  </si>
+  <si>
+    <t>inside_wall_paper-ceiling</t>
+  </si>
+  <si>
+    <t>A63020</t>
+  </si>
+  <si>
+    <t>inside_wall_paper-wall</t>
+  </si>
+  <si>
+    <t>A49510</t>
+  </si>
+  <si>
+    <t>inside_waterproofing</t>
+  </si>
+  <si>
+    <t>inside_waterproofing-surface</t>
+  </si>
+  <si>
+    <t>A49520</t>
+  </si>
+  <si>
+    <t>inside_waterproofing-waterproofing</t>
+  </si>
+  <si>
+    <t>A49530</t>
+  </si>
+  <si>
+    <t>inside_waterproofing-test</t>
+  </si>
+  <si>
+    <t>A49540</t>
+  </si>
+  <si>
+    <t>inside_waterproofing-protection</t>
+  </si>
+  <si>
+    <t>A56510</t>
+  </si>
+  <si>
+    <t>inside_floor_tile</t>
+  </si>
+  <si>
+    <t>inside_floor_tile-surface</t>
+  </si>
+  <si>
+    <t>A56520</t>
+  </si>
+  <si>
+    <t>inside_floor_tile-tile</t>
+  </si>
+  <si>
+    <t>A57010</t>
+  </si>
+  <si>
+    <t>inside_wall_tile</t>
+  </si>
+  <si>
+    <t>inside_wall_tile-0</t>
+  </si>
+  <si>
+    <t>A60010</t>
+  </si>
+  <si>
+    <t>ceiling_tile</t>
+  </si>
+  <si>
+    <t>ceiling_tile-0</t>
+  </si>
+  <si>
+    <t>A60710</t>
+  </si>
+  <si>
+    <t>washbasin_installation</t>
+  </si>
+  <si>
+    <t>washbasin_installation-frame</t>
+  </si>
+  <si>
+    <t>A60720</t>
+  </si>
+  <si>
+    <t>washbasin_installation-basin</t>
+  </si>
+  <si>
+    <t>A66010</t>
+  </si>
+  <si>
+    <t>toilet_accessaries_nstallation</t>
+  </si>
+  <si>
+    <t>toilet_accessaries_nstallation-0</t>
+  </si>
+  <si>
+    <t>A52510</t>
+  </si>
+  <si>
+    <t>외장공사</t>
+  </si>
+  <si>
+    <t>al_window</t>
+  </si>
+  <si>
+    <t>al_window-frame</t>
+  </si>
+  <si>
+    <t>A52520</t>
+  </si>
+  <si>
+    <t>al_window-insulation_filling</t>
+  </si>
+  <si>
+    <t>A52530</t>
+  </si>
+  <si>
+    <t>al_window-window</t>
+  </si>
+  <si>
+    <t>A54010</t>
+  </si>
+  <si>
+    <t>window_door</t>
+  </si>
+  <si>
+    <t>window_door-surface</t>
+  </si>
+  <si>
+    <t>A54020</t>
+  </si>
+  <si>
+    <t>window_door-hardware</t>
+  </si>
+  <si>
+    <t>A54030</t>
+  </si>
+  <si>
+    <t>window_door-door</t>
+  </si>
+  <si>
+    <t>A47510</t>
+  </si>
+  <si>
+    <t>outside_wall_finishing</t>
+  </si>
+  <si>
+    <t>outside_wall_finishing-line_marking</t>
+  </si>
+  <si>
+    <t>A47520</t>
+  </si>
+  <si>
+    <t>outside_wall_finishing-frame</t>
+  </si>
+  <si>
+    <t>A47530</t>
+  </si>
+  <si>
+    <t>outside_wall_finishing-panel</t>
+  </si>
+  <si>
+    <t>A51510</t>
+  </si>
+  <si>
+    <t>pvc_window</t>
+  </si>
+  <si>
+    <t>pvc_window-frame</t>
+  </si>
+  <si>
+    <t>A51520</t>
+  </si>
+  <si>
+    <t>pvc_window-insulation_filling</t>
+  </si>
+  <si>
+    <t>A51530</t>
+  </si>
+  <si>
+    <t>pvc_window-window</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1232,19 +2146,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2000" max="2000" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="1999" max="1999" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1261,816 +2179,2877 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72">
         <v>5</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73">
         <v>5</v>
       </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79">
         <v>5</v>
       </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84">
         <v>5</v>
       </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85">
         <v>5</v>
       </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86">
         <v>5</v>
       </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" t="s">
-        <v>96</v>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" t="s">
+        <v>193</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" t="s">
+        <v>216</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B103" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" t="s">
+        <v>235</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" t="s">
+        <v>242</v>
+      </c>
+      <c r="D105" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" t="s">
+        <v>245</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" t="s">
+        <v>249</v>
+      </c>
+      <c r="D108" t="s">
+        <v>247</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" t="s">
+        <v>250</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>251</v>
+      </c>
+      <c r="C110" t="s">
+        <v>254</v>
+      </c>
+      <c r="D110" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" t="s">
+        <v>255</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" t="s">
+        <v>259</v>
+      </c>
+      <c r="D112" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
+        <v>261</v>
+      </c>
+      <c r="C113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" t="s">
+        <v>260</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" t="s">
+        <v>261</v>
+      </c>
+      <c r="C114" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" t="s">
+        <v>263</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" t="s">
+        <v>265</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" t="s">
+        <v>267</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" t="s">
+        <v>270</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>221</v>
+      </c>
+      <c r="B118" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" t="s">
+        <v>274</v>
+      </c>
+      <c r="D118" t="s">
+        <v>272</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" t="s">
+        <v>275</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" t="s">
+        <v>280</v>
+      </c>
+      <c r="D120" t="s">
+        <v>278</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>221</v>
+      </c>
+      <c r="B121" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" t="s">
+        <v>283</v>
+      </c>
+      <c r="D121" t="s">
+        <v>281</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" t="s">
+        <v>285</v>
+      </c>
+      <c r="D122" t="s">
+        <v>284</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" t="s">
+        <v>287</v>
+      </c>
+      <c r="D123" t="s">
+        <v>286</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" t="s">
+        <v>289</v>
+      </c>
+      <c r="D124" t="s">
+        <v>288</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" t="s">
+        <v>292</v>
+      </c>
+      <c r="D125" t="s">
+        <v>290</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" t="s">
+        <v>291</v>
+      </c>
+      <c r="C126" t="s">
+        <v>294</v>
+      </c>
+      <c r="D126" t="s">
+        <v>293</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
+        <v>297</v>
+      </c>
+      <c r="D127" t="s">
+        <v>295</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" t="s">
+        <v>302</v>
+      </c>
+      <c r="D129" t="s">
+        <v>300</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" t="s">
+        <v>304</v>
+      </c>
+      <c r="D130" t="s">
+        <v>303</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" t="s">
+        <v>301</v>
+      </c>
+      <c r="C131" t="s">
+        <v>306</v>
+      </c>
+      <c r="D131" t="s">
+        <v>305</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" t="s">
+        <v>308</v>
+      </c>
+      <c r="D132" t="s">
+        <v>307</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" t="s">
+        <v>310</v>
+      </c>
+      <c r="C133" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" t="s">
+        <v>309</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" t="s">
+        <v>313</v>
+      </c>
+      <c r="C134" t="s">
+        <v>314</v>
+      </c>
+      <c r="D134" t="s">
+        <v>312</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>221</v>
+      </c>
+      <c r="B135" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" t="s">
+        <v>316</v>
+      </c>
+      <c r="D135" t="s">
+        <v>315</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" t="s">
+        <v>319</v>
+      </c>
+      <c r="D136" t="s">
+        <v>317</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>221</v>
+      </c>
+      <c r="B137" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" t="s">
+        <v>321</v>
+      </c>
+      <c r="D137" t="s">
+        <v>320</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>221</v>
+      </c>
+      <c r="B138" t="s">
+        <v>323</v>
+      </c>
+      <c r="C138" t="s">
+        <v>324</v>
+      </c>
+      <c r="D138" t="s">
+        <v>322</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>221</v>
+      </c>
+      <c r="B139" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" t="s">
+        <v>326</v>
+      </c>
+      <c r="D139" t="s">
+        <v>325</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" t="s">
+        <v>323</v>
+      </c>
+      <c r="C140" t="s">
+        <v>328</v>
+      </c>
+      <c r="D140" t="s">
+        <v>327</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>221</v>
+      </c>
+      <c r="B141" t="s">
+        <v>330</v>
+      </c>
+      <c r="C141" t="s">
+        <v>331</v>
+      </c>
+      <c r="D141" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>221</v>
+      </c>
+      <c r="B142" t="s">
+        <v>330</v>
+      </c>
+      <c r="C142" t="s">
+        <v>333</v>
+      </c>
+      <c r="D142" t="s">
+        <v>332</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>221</v>
+      </c>
+      <c r="B143" t="s">
+        <v>330</v>
+      </c>
+      <c r="C143" t="s">
+        <v>335</v>
+      </c>
+      <c r="D143" t="s">
+        <v>334</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" t="s">
+        <v>337</v>
+      </c>
+      <c r="D144" t="s">
+        <v>336</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" t="s">
+        <v>339</v>
+      </c>
+      <c r="D145" t="s">
+        <v>338</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" t="s">
+        <v>342</v>
+      </c>
+      <c r="D146" t="s">
+        <v>340</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>221</v>
+      </c>
+      <c r="B147" t="s">
+        <v>341</v>
+      </c>
+      <c r="C147" t="s">
+        <v>344</v>
+      </c>
+      <c r="D147" t="s">
+        <v>343</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" t="s">
+        <v>346</v>
+      </c>
+      <c r="C148" t="s">
+        <v>347</v>
+      </c>
+      <c r="D148" t="s">
+        <v>345</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" t="s">
+        <v>346</v>
+      </c>
+      <c r="C149" t="s">
+        <v>349</v>
+      </c>
+      <c r="D149" t="s">
+        <v>348</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150" t="s">
+        <v>351</v>
+      </c>
+      <c r="D150" t="s">
+        <v>350</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+      <c r="B151" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" t="s">
+        <v>353</v>
+      </c>
+      <c r="D151" t="s">
+        <v>352</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>221</v>
+      </c>
+      <c r="B152" t="s">
+        <v>355</v>
+      </c>
+      <c r="C152" t="s">
+        <v>356</v>
+      </c>
+      <c r="D152" t="s">
+        <v>354</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>221</v>
+      </c>
+      <c r="B153" t="s">
+        <v>355</v>
+      </c>
+      <c r="C153" t="s">
+        <v>358</v>
+      </c>
+      <c r="D153" t="s">
+        <v>357</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>221</v>
+      </c>
+      <c r="B154" t="s">
+        <v>360</v>
+      </c>
+      <c r="C154" t="s">
+        <v>361</v>
+      </c>
+      <c r="D154" t="s">
+        <v>359</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>221</v>
+      </c>
+      <c r="B155" t="s">
+        <v>363</v>
+      </c>
+      <c r="C155" t="s">
+        <v>364</v>
+      </c>
+      <c r="D155" t="s">
+        <v>362</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>221</v>
+      </c>
+      <c r="B156" t="s">
+        <v>366</v>
+      </c>
+      <c r="C156" t="s">
+        <v>367</v>
+      </c>
+      <c r="D156" t="s">
+        <v>365</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>221</v>
+      </c>
+      <c r="B157" t="s">
+        <v>366</v>
+      </c>
+      <c r="C157" t="s">
+        <v>369</v>
+      </c>
+      <c r="D157" t="s">
+        <v>368</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>221</v>
+      </c>
+      <c r="B158" t="s">
+        <v>371</v>
+      </c>
+      <c r="C158" t="s">
+        <v>372</v>
+      </c>
+      <c r="D158" t="s">
+        <v>370</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>374</v>
+      </c>
+      <c r="B159" t="s">
+        <v>375</v>
+      </c>
+      <c r="C159" t="s">
+        <v>376</v>
+      </c>
+      <c r="D159" t="s">
+        <v>373</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>374</v>
+      </c>
+      <c r="B160" t="s">
+        <v>375</v>
+      </c>
+      <c r="C160" t="s">
+        <v>378</v>
+      </c>
+      <c r="D160" t="s">
+        <v>377</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>374</v>
+      </c>
+      <c r="B161" t="s">
+        <v>375</v>
+      </c>
+      <c r="C161" t="s">
+        <v>380</v>
+      </c>
+      <c r="D161" t="s">
+        <v>379</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>374</v>
+      </c>
+      <c r="B162" t="s">
+        <v>382</v>
+      </c>
+      <c r="C162" t="s">
+        <v>383</v>
+      </c>
+      <c r="D162" t="s">
+        <v>381</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>374</v>
+      </c>
+      <c r="B163" t="s">
+        <v>382</v>
+      </c>
+      <c r="C163" t="s">
+        <v>385</v>
+      </c>
+      <c r="D163" t="s">
+        <v>384</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>374</v>
+      </c>
+      <c r="B164" t="s">
+        <v>382</v>
+      </c>
+      <c r="C164" t="s">
+        <v>387</v>
+      </c>
+      <c r="D164" t="s">
+        <v>386</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>374</v>
+      </c>
+      <c r="B165" t="s">
+        <v>389</v>
+      </c>
+      <c r="C165" t="s">
+        <v>390</v>
+      </c>
+      <c r="D165" t="s">
+        <v>388</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>374</v>
+      </c>
+      <c r="B166" t="s">
+        <v>389</v>
+      </c>
+      <c r="C166" t="s">
+        <v>392</v>
+      </c>
+      <c r="D166" t="s">
+        <v>391</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>374</v>
+      </c>
+      <c r="B167" t="s">
+        <v>389</v>
+      </c>
+      <c r="C167" t="s">
+        <v>394</v>
+      </c>
+      <c r="D167" t="s">
+        <v>393</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>374</v>
+      </c>
+      <c r="B168" t="s">
+        <v>396</v>
+      </c>
+      <c r="C168" t="s">
+        <v>397</v>
+      </c>
+      <c r="D168" t="s">
+        <v>395</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>374</v>
+      </c>
+      <c r="B169" t="s">
+        <v>396</v>
+      </c>
+      <c r="C169" t="s">
+        <v>399</v>
+      </c>
+      <c r="D169" t="s">
+        <v>398</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>374</v>
+      </c>
+      <c r="B170" t="s">
+        <v>396</v>
+      </c>
+      <c r="C170" t="s">
+        <v>401</v>
+      </c>
+      <c r="D170" t="s">
+        <v>400</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="activity_list" sheetId="1" r:id="rId1"/>
+    <sheet name="wp&amp;act" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="538">
   <si>
     <t>name_major</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1230,6 +1231,418 @@
   </si>
   <si>
     <t>pvc_window-window</t>
+  </si>
+  <si>
+    <t>wp_code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_name_en</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>act_id</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>act_name_en</t>
+  </si>
+  <si>
+    <t>productivity</t>
+  </si>
+  <si>
+    <t>M000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>line_marking</t>
+  </si>
+  <si>
+    <t>compaction</t>
+  </si>
+  <si>
+    <t>backfilling</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>wrapping</t>
+  </si>
+  <si>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>T300</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>rebar</t>
+  </si>
+  <si>
+    <t>casting</t>
+  </si>
+  <si>
+    <t>curing1</t>
+  </si>
+  <si>
+    <t>curing2</t>
+  </si>
+  <si>
+    <t>curing3</t>
+  </si>
+  <si>
+    <t>curing4</t>
+  </si>
+  <si>
+    <t>curing5</t>
+  </si>
+  <si>
+    <t>curing6</t>
+  </si>
+  <si>
+    <t>installation</t>
+  </si>
+  <si>
+    <t>T320</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>dismantling</t>
+  </si>
+  <si>
+    <t>T350</t>
+  </si>
+  <si>
+    <t>T370</t>
+  </si>
+  <si>
+    <t>W100</t>
+  </si>
+  <si>
+    <t>guidebeam</t>
+  </si>
+  <si>
+    <t>soil_compaction_for_machine</t>
+  </si>
+  <si>
+    <t>dig&amp;rebar_1</t>
+  </si>
+  <si>
+    <t>casting_1</t>
+  </si>
+  <si>
+    <t>dig&amp;rebar_2</t>
+  </si>
+  <si>
+    <t>casting_2</t>
+  </si>
+  <si>
+    <t>dig&amp;rebar_3</t>
+  </si>
+  <si>
+    <t>casting_3</t>
+  </si>
+  <si>
+    <t>capbeam</t>
+  </si>
+  <si>
+    <t>capbeam_casting</t>
+  </si>
+  <si>
+    <t>W110</t>
+  </si>
+  <si>
+    <t>dig&amp;piping</t>
+  </si>
+  <si>
+    <t>injection</t>
+  </si>
+  <si>
+    <t>cleaning</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>dig&amp;piling</t>
+  </si>
+  <si>
+    <t>R110</t>
+  </si>
+  <si>
+    <t>wale</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>R120</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>F200</t>
+  </si>
+  <si>
+    <t>vapor_proof&amp;lean_conc.</t>
+  </si>
+  <si>
+    <t>re-bar</t>
+  </si>
+  <si>
+    <t>curing</t>
+  </si>
+  <si>
+    <t>backfill</t>
+  </si>
+  <si>
+    <t>S100</t>
+  </si>
+  <si>
+    <t>embedding</t>
+  </si>
+  <si>
+    <t>S110</t>
+  </si>
+  <si>
+    <t>A415</t>
+  </si>
+  <si>
+    <t>A445</t>
+  </si>
+  <si>
+    <t>material_delivery</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>A450</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>A485</t>
+  </si>
+  <si>
+    <t>stud</t>
+  </si>
+  <si>
+    <t>gypsum_board</t>
+  </si>
+  <si>
+    <t>A505</t>
+  </si>
+  <si>
+    <t>hanger</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>A510</t>
+  </si>
+  <si>
+    <t>A520</t>
+  </si>
+  <si>
+    <t>A530</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>A550</t>
+  </si>
+  <si>
+    <t>A575</t>
+  </si>
+  <si>
+    <t>A580</t>
+  </si>
+  <si>
+    <t>A590</t>
+  </si>
+  <si>
+    <t>A595</t>
+  </si>
+  <si>
+    <t>A605</t>
+  </si>
+  <si>
+    <t>A610</t>
+  </si>
+  <si>
+    <t>tile</t>
+  </si>
+  <si>
+    <t>A625</t>
+  </si>
+  <si>
+    <t>A640</t>
+  </si>
+  <si>
+    <t>A600</t>
+  </si>
+  <si>
+    <t>A670</t>
+  </si>
+  <si>
+    <t>A418</t>
+  </si>
+  <si>
+    <t>floor_tile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A430</t>
+  </si>
+  <si>
+    <t>concreting</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_marking</t>
+  </si>
+  <si>
+    <t>concreting</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor_plastering</t>
+  </si>
+  <si>
+    <t>A455</t>
+  </si>
+  <si>
+    <t>insulation</t>
+  </si>
+  <si>
+    <t>A615</t>
+  </si>
+  <si>
+    <t>floor_coating</t>
+  </si>
+  <si>
+    <t>A665</t>
+  </si>
+  <si>
+    <t>A460</t>
+  </si>
+  <si>
+    <t>A535</t>
+  </si>
+  <si>
+    <t>A545</t>
+  </si>
+  <si>
+    <t>mortar_1st</t>
+  </si>
+  <si>
+    <t>mortar_final</t>
+  </si>
+  <si>
+    <t>A620</t>
+  </si>
+  <si>
+    <t>woodtile</t>
+  </si>
+  <si>
+    <t>finishing</t>
+  </si>
+  <si>
+    <t>A630</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>A495</t>
+  </si>
+  <si>
+    <t>waterproofing</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>A565</t>
+  </si>
+  <si>
+    <t>A570</t>
+  </si>
+  <si>
+    <t>A607</t>
+  </si>
+  <si>
+    <t>basin</t>
+  </si>
+  <si>
+    <t>A660</t>
+  </si>
+  <si>
+    <t>A525</t>
+  </si>
+  <si>
+    <t>insulation_filling</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>A540</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>A475</t>
+  </si>
+  <si>
+    <t>A515</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1575,6 +1988,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1822,8 +2241,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2149,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2159,7 +2581,7 @@
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="1999" max="1999" width="2.6640625" customWidth="1"/>
+    <col min="1999" max="2000" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -5057,4 +5479,4443 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>415</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>418</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>421</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>422</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>423</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>424</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>425</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>426</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>427</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>422</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>423</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" t="s">
+        <v>410</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>424</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>425</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>426</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>433</v>
+      </c>
+      <c r="B34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>427</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>433</v>
+      </c>
+      <c r="B35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>428</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" t="s">
+        <v>410</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>433</v>
+      </c>
+      <c r="B37" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>418</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>432</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>435</v>
+      </c>
+      <c r="B39" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
+        <v>412</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B40" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>436</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>437</v>
+      </c>
+      <c r="G41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" t="s">
+        <v>438</v>
+      </c>
+      <c r="G42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>439</v>
+      </c>
+      <c r="G43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>435</v>
+      </c>
+      <c r="B44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>440</v>
+      </c>
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" t="s">
+        <v>410</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" t="s">
+        <v>441</v>
+      </c>
+      <c r="G45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>435</v>
+      </c>
+      <c r="B46" t="s">
+        <v>410</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>442</v>
+      </c>
+      <c r="G46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" t="s">
+        <v>443</v>
+      </c>
+      <c r="G47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>435</v>
+      </c>
+      <c r="B48" t="s">
+        <v>410</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>444</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>435</v>
+      </c>
+      <c r="B49" t="s">
+        <v>410</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>446</v>
+      </c>
+      <c r="B50" t="s">
+        <v>446</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>446</v>
+      </c>
+      <c r="B51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>447</v>
+      </c>
+      <c r="G51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>446</v>
+      </c>
+      <c r="B52" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" t="s">
+        <v>448</v>
+      </c>
+      <c r="G52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>446</v>
+      </c>
+      <c r="B53" t="s">
+        <v>410</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" t="s">
+        <v>449</v>
+      </c>
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>450</v>
+      </c>
+      <c r="B54" t="s">
+        <v>450</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>451</v>
+      </c>
+      <c r="G54" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>450</v>
+      </c>
+      <c r="B55" t="s">
+        <v>410</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>450</v>
+      </c>
+      <c r="B56" t="s">
+        <v>410</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" t="s">
+        <v>418</v>
+      </c>
+      <c r="G56" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>452</v>
+      </c>
+      <c r="B57" t="s">
+        <v>452</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>453</v>
+      </c>
+      <c r="B58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>453</v>
+      </c>
+      <c r="B59" t="s">
+        <v>410</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" t="s">
+        <v>454</v>
+      </c>
+      <c r="G59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>455</v>
+      </c>
+      <c r="B60" t="s">
+        <v>455</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="s">
+        <v>456</v>
+      </c>
+      <c r="G60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>455</v>
+      </c>
+      <c r="B61" t="s">
+        <v>410</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" t="s">
+        <v>457</v>
+      </c>
+      <c r="G61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62" t="s">
+        <v>410</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="s">
+        <v>418</v>
+      </c>
+      <c r="G62" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>458</v>
+      </c>
+      <c r="B63" t="s">
+        <v>458</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" t="s">
+        <v>459</v>
+      </c>
+      <c r="G63" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>461</v>
+      </c>
+      <c r="B65" t="s">
+        <v>461</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" t="s">
+        <v>462</v>
+      </c>
+      <c r="G65" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>461</v>
+      </c>
+      <c r="B66" t="s">
+        <v>410</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" t="s">
+        <v>412</v>
+      </c>
+      <c r="G66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" t="s">
+        <v>463</v>
+      </c>
+      <c r="G67" t="s">
+        <v>151</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" t="s">
+        <v>410</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" t="s">
+        <v>420</v>
+      </c>
+      <c r="G68" t="s">
+        <v>153</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" t="s">
+        <v>422</v>
+      </c>
+      <c r="G69" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>461</v>
+      </c>
+      <c r="B70" t="s">
+        <v>410</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" t="s">
+        <v>464</v>
+      </c>
+      <c r="G70" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" t="s">
+        <v>410</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" t="s">
+        <v>432</v>
+      </c>
+      <c r="G71" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>461</v>
+      </c>
+      <c r="B72" t="s">
+        <v>410</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" t="s">
+        <v>465</v>
+      </c>
+      <c r="G72" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>466</v>
+      </c>
+      <c r="B73" t="s">
+        <v>466</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" t="s">
+        <v>412</v>
+      </c>
+      <c r="G73" t="s">
+        <v>165</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>466</v>
+      </c>
+      <c r="B74" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" t="s">
+        <v>463</v>
+      </c>
+      <c r="G74" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>466</v>
+      </c>
+      <c r="B75" t="s">
+        <v>410</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" t="s">
+        <v>467</v>
+      </c>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>466</v>
+      </c>
+      <c r="B76" t="s">
+        <v>410</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" t="s">
+        <v>420</v>
+      </c>
+      <c r="G76" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>466</v>
+      </c>
+      <c r="B77" t="s">
+        <v>410</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77" t="s">
+        <v>418</v>
+      </c>
+      <c r="G77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78" t="s">
+        <v>410</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" t="s">
+        <v>422</v>
+      </c>
+      <c r="G78" t="s">
+        <v>175</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>466</v>
+      </c>
+      <c r="B79" t="s">
+        <v>410</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" t="s">
+        <v>464</v>
+      </c>
+      <c r="G79" t="s">
+        <v>177</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>466</v>
+      </c>
+      <c r="B80" t="s">
+        <v>410</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" t="s">
+        <v>432</v>
+      </c>
+      <c r="G80" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>468</v>
+      </c>
+      <c r="B81" t="s">
+        <v>468</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" t="s">
+        <v>420</v>
+      </c>
+      <c r="G81" t="s">
+        <v>182</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>468</v>
+      </c>
+      <c r="B82" t="s">
+        <v>410</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" t="s">
+        <v>463</v>
+      </c>
+      <c r="G82" t="s">
+        <v>184</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>468</v>
+      </c>
+      <c r="B83" t="s">
+        <v>410</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" t="s">
+        <v>185</v>
+      </c>
+      <c r="F83" t="s">
+        <v>467</v>
+      </c>
+      <c r="G83" t="s">
+        <v>186</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>468</v>
+      </c>
+      <c r="B84" t="s">
+        <v>410</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" t="s">
+        <v>418</v>
+      </c>
+      <c r="G84" t="s">
+        <v>188</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>468</v>
+      </c>
+      <c r="B85" t="s">
+        <v>410</v>
+      </c>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" t="s">
+        <v>422</v>
+      </c>
+      <c r="G85" t="s">
+        <v>190</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>468</v>
+      </c>
+      <c r="B86" t="s">
+        <v>410</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" t="s">
+        <v>464</v>
+      </c>
+      <c r="G86" t="s">
+        <v>192</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>468</v>
+      </c>
+      <c r="B87" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87" t="s">
+        <v>432</v>
+      </c>
+      <c r="G87" t="s">
+        <v>194</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>469</v>
+      </c>
+      <c r="B88" t="s">
+        <v>469</v>
+      </c>
+      <c r="C88" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>198</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>470</v>
+      </c>
+      <c r="B89" t="s">
+        <v>470</v>
+      </c>
+      <c r="C89" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" t="s">
+        <v>199</v>
+      </c>
+      <c r="F89" t="s">
+        <v>471</v>
+      </c>
+      <c r="G89" t="s">
+        <v>201</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" t="s">
+        <v>410</v>
+      </c>
+      <c r="C90" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E90" t="s">
+        <v>202</v>
+      </c>
+      <c r="F90" t="s">
+        <v>472</v>
+      </c>
+      <c r="G90" t="s">
+        <v>203</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>470</v>
+      </c>
+      <c r="B91" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" t="s">
+        <v>200</v>
+      </c>
+      <c r="D91" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" t="s">
+        <v>204</v>
+      </c>
+      <c r="F91" t="s">
+        <v>473</v>
+      </c>
+      <c r="G91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>474</v>
+      </c>
+      <c r="B92" t="s">
+        <v>474</v>
+      </c>
+      <c r="C92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" t="s">
+        <v>196</v>
+      </c>
+      <c r="E92" t="s">
+        <v>206</v>
+      </c>
+      <c r="F92" t="s">
+        <v>475</v>
+      </c>
+      <c r="G92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>474</v>
+      </c>
+      <c r="B93" t="s">
+        <v>410</v>
+      </c>
+      <c r="C93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" t="s">
+        <v>209</v>
+      </c>
+      <c r="F93" t="s">
+        <v>472</v>
+      </c>
+      <c r="G93" t="s">
+        <v>210</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>474</v>
+      </c>
+      <c r="B94" t="s">
+        <v>410</v>
+      </c>
+      <c r="C94" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" t="s">
+        <v>211</v>
+      </c>
+      <c r="F94" t="s">
+        <v>476</v>
+      </c>
+      <c r="G94" t="s">
+        <v>212</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>477</v>
+      </c>
+      <c r="B95" t="s">
+        <v>477</v>
+      </c>
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" t="s">
+        <v>412</v>
+      </c>
+      <c r="G95" t="s">
+        <v>215</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>477</v>
+      </c>
+      <c r="B96" t="s">
+        <v>410</v>
+      </c>
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>196</v>
+      </c>
+      <c r="E96" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" t="s">
+        <v>478</v>
+      </c>
+      <c r="G96" t="s">
+        <v>217</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>477</v>
+      </c>
+      <c r="B97" t="s">
+        <v>410</v>
+      </c>
+      <c r="C97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" t="s">
+        <v>218</v>
+      </c>
+      <c r="F97" t="s">
+        <v>479</v>
+      </c>
+      <c r="G97" t="s">
+        <v>219</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>480</v>
+      </c>
+      <c r="B98" t="s">
+        <v>480</v>
+      </c>
+      <c r="C98" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" t="s">
+        <v>220</v>
+      </c>
+      <c r="F98" t="s">
+        <v>481</v>
+      </c>
+      <c r="G98" t="s">
+        <v>223</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>480</v>
+      </c>
+      <c r="B99" t="s">
+        <v>410</v>
+      </c>
+      <c r="C99" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" t="s">
+        <v>224</v>
+      </c>
+      <c r="F99" t="s">
+        <v>482</v>
+      </c>
+      <c r="G99" t="s">
+        <v>225</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>483</v>
+      </c>
+      <c r="B100" t="s">
+        <v>483</v>
+      </c>
+      <c r="C100" t="s">
+        <v>227</v>
+      </c>
+      <c r="D100" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" t="s">
+        <v>226</v>
+      </c>
+      <c r="F100" t="s">
+        <v>479</v>
+      </c>
+      <c r="G100" t="s">
+        <v>228</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>484</v>
+      </c>
+      <c r="B101" t="s">
+        <v>484</v>
+      </c>
+      <c r="C101" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>231</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>485</v>
+      </c>
+      <c r="B102" t="s">
+        <v>485</v>
+      </c>
+      <c r="C102" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" t="s">
+        <v>482</v>
+      </c>
+      <c r="G102" t="s">
+        <v>234</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>485</v>
+      </c>
+      <c r="B103" t="s">
+        <v>410</v>
+      </c>
+      <c r="C103" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" t="s">
+        <v>486</v>
+      </c>
+      <c r="G103" t="s">
+        <v>236</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>487</v>
+      </c>
+      <c r="B104" t="s">
+        <v>487</v>
+      </c>
+      <c r="C104" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" t="s">
+        <v>237</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>239</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>488</v>
+      </c>
+      <c r="B105" t="s">
+        <v>488</v>
+      </c>
+      <c r="C105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" t="s">
+        <v>240</v>
+      </c>
+      <c r="F105" t="s">
+        <v>475</v>
+      </c>
+      <c r="G105" t="s">
+        <v>242</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>488</v>
+      </c>
+      <c r="B106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C106" t="s">
+        <v>241</v>
+      </c>
+      <c r="D106" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" t="s">
+        <v>243</v>
+      </c>
+      <c r="F106" t="s">
+        <v>472</v>
+      </c>
+      <c r="G106" t="s">
+        <v>244</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>488</v>
+      </c>
+      <c r="B107" t="s">
+        <v>410</v>
+      </c>
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" t="s">
+        <v>245</v>
+      </c>
+      <c r="F107" t="s">
+        <v>476</v>
+      </c>
+      <c r="G107" t="s">
+        <v>246</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>489</v>
+      </c>
+      <c r="B108" t="s">
+        <v>489</v>
+      </c>
+      <c r="C108" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>247</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>249</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>490</v>
+      </c>
+      <c r="B109" t="s">
+        <v>490</v>
+      </c>
+      <c r="C109" t="s">
+        <v>251</v>
+      </c>
+      <c r="D109" t="s">
+        <v>221</v>
+      </c>
+      <c r="E109" t="s">
+        <v>250</v>
+      </c>
+      <c r="F109" t="s">
+        <v>475</v>
+      </c>
+      <c r="G109" t="s">
+        <v>252</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>490</v>
+      </c>
+      <c r="B110" t="s">
+        <v>410</v>
+      </c>
+      <c r="C110" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" t="s">
+        <v>221</v>
+      </c>
+      <c r="E110" t="s">
+        <v>253</v>
+      </c>
+      <c r="F110" t="s">
+        <v>472</v>
+      </c>
+      <c r="G110" t="s">
+        <v>254</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B111" t="s">
+        <v>410</v>
+      </c>
+      <c r="C111" t="s">
+        <v>251</v>
+      </c>
+      <c r="D111" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" t="s">
+        <v>255</v>
+      </c>
+      <c r="F111" t="s">
+        <v>476</v>
+      </c>
+      <c r="G111" t="s">
+        <v>256</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>491</v>
+      </c>
+      <c r="B112" t="s">
+        <v>491</v>
+      </c>
+      <c r="C112" t="s">
+        <v>258</v>
+      </c>
+      <c r="D112" t="s">
+        <v>221</v>
+      </c>
+      <c r="E112" t="s">
+        <v>257</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>259</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>492</v>
+      </c>
+      <c r="B113" t="s">
+        <v>492</v>
+      </c>
+      <c r="C113" t="s">
+        <v>261</v>
+      </c>
+      <c r="D113" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" t="s">
+        <v>260</v>
+      </c>
+      <c r="F113" t="s">
+        <v>475</v>
+      </c>
+      <c r="G113" t="s">
+        <v>262</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>492</v>
+      </c>
+      <c r="B114" t="s">
+        <v>410</v>
+      </c>
+      <c r="C114" t="s">
+        <v>261</v>
+      </c>
+      <c r="D114" t="s">
+        <v>221</v>
+      </c>
+      <c r="E114" t="s">
+        <v>263</v>
+      </c>
+      <c r="F114" t="s">
+        <v>472</v>
+      </c>
+      <c r="G114" t="s">
+        <v>264</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>492</v>
+      </c>
+      <c r="B115" t="s">
+        <v>410</v>
+      </c>
+      <c r="C115" t="s">
+        <v>261</v>
+      </c>
+      <c r="D115" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" t="s">
+        <v>265</v>
+      </c>
+      <c r="F115" t="s">
+        <v>476</v>
+      </c>
+      <c r="G115" t="s">
+        <v>266</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>493</v>
+      </c>
+      <c r="B116" t="s">
+        <v>493</v>
+      </c>
+      <c r="C116" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" t="s">
+        <v>475</v>
+      </c>
+      <c r="G116" t="s">
+        <v>269</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>493</v>
+      </c>
+      <c r="B117" t="s">
+        <v>410</v>
+      </c>
+      <c r="C117" t="s">
+        <v>268</v>
+      </c>
+      <c r="D117" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" t="s">
+        <v>270</v>
+      </c>
+      <c r="F117" t="s">
+        <v>494</v>
+      </c>
+      <c r="G117" t="s">
+        <v>271</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>495</v>
+      </c>
+      <c r="B118" t="s">
+        <v>495</v>
+      </c>
+      <c r="C118" t="s">
+        <v>273</v>
+      </c>
+      <c r="D118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E118" t="s">
+        <v>272</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>274</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>496</v>
+      </c>
+      <c r="B119" t="s">
+        <v>496</v>
+      </c>
+      <c r="C119" t="s">
+        <v>276</v>
+      </c>
+      <c r="D119" t="s">
+        <v>221</v>
+      </c>
+      <c r="E119" t="s">
+        <v>275</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>277</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>497</v>
+      </c>
+      <c r="B120" t="s">
+        <v>497</v>
+      </c>
+      <c r="C120" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" t="s">
+        <v>221</v>
+      </c>
+      <c r="E120" t="s">
+        <v>278</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>280</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>498</v>
+      </c>
+      <c r="B121" t="s">
+        <v>498</v>
+      </c>
+      <c r="C121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D121" t="s">
+        <v>221</v>
+      </c>
+      <c r="E121" t="s">
+        <v>281</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>283</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122" t="s">
+        <v>499</v>
+      </c>
+      <c r="C122" t="s">
+        <v>500</v>
+      </c>
+      <c r="D122" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" t="s">
+        <v>284</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="str">
+        <f>C122&amp;"-"&amp;F122</f>
+        <v>floor_tile-0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>501</v>
+      </c>
+      <c r="B123" t="s">
+        <v>501</v>
+      </c>
+      <c r="C123" t="s">
+        <v>502</v>
+      </c>
+      <c r="D123" t="s">
+        <v>221</v>
+      </c>
+      <c r="E123" t="s">
+        <v>286</v>
+      </c>
+      <c r="F123" t="s">
+        <v>503</v>
+      </c>
+      <c r="G123" t="str">
+        <f>C123&amp;"-"&amp;F123</f>
+        <v>concreting-level_marking</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>501</v>
+      </c>
+      <c r="B124" t="s">
+        <v>410</v>
+      </c>
+      <c r="C124" t="s">
+        <v>504</v>
+      </c>
+      <c r="D124" t="s">
+        <v>221</v>
+      </c>
+      <c r="E124" t="s">
+        <v>288</v>
+      </c>
+      <c r="F124" t="s">
+        <v>422</v>
+      </c>
+      <c r="G124" t="str">
+        <f>C124&amp;"-"&amp;F124</f>
+        <v>concreting-casting</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>501</v>
+      </c>
+      <c r="B125" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" t="s">
+        <v>502</v>
+      </c>
+      <c r="D125" t="s">
+        <v>221</v>
+      </c>
+      <c r="E125" t="s">
+        <v>290</v>
+      </c>
+      <c r="F125" t="s">
+        <v>505</v>
+      </c>
+      <c r="G125" t="str">
+        <f>C125&amp;"-"&amp;F125</f>
+        <v>concreting-floor_plastering</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>501</v>
+      </c>
+      <c r="B126" t="s">
+        <v>410</v>
+      </c>
+      <c r="C126" t="s">
+        <v>502</v>
+      </c>
+      <c r="D126" t="s">
+        <v>221</v>
+      </c>
+      <c r="E126" t="s">
+        <v>293</v>
+      </c>
+      <c r="F126" t="s">
+        <v>464</v>
+      </c>
+      <c r="G126" t="str">
+        <f>C126&amp;"-"&amp;F126</f>
+        <v>concreting-curing</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>506</v>
+      </c>
+      <c r="B127" t="s">
+        <v>506</v>
+      </c>
+      <c r="C127" t="s">
+        <v>296</v>
+      </c>
+      <c r="D127" t="s">
+        <v>221</v>
+      </c>
+      <c r="E127" t="s">
+        <v>295</v>
+      </c>
+      <c r="F127" t="s">
+        <v>475</v>
+      </c>
+      <c r="G127" t="s">
+        <v>297</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>506</v>
+      </c>
+      <c r="B128" t="s">
+        <v>410</v>
+      </c>
+      <c r="C128" t="s">
+        <v>296</v>
+      </c>
+      <c r="D128" t="s">
+        <v>221</v>
+      </c>
+      <c r="E128" t="s">
+        <v>298</v>
+      </c>
+      <c r="F128" t="s">
+        <v>507</v>
+      </c>
+      <c r="G128" t="s">
+        <v>299</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>508</v>
+      </c>
+      <c r="B129" t="s">
+        <v>508</v>
+      </c>
+      <c r="C129" t="s">
+        <v>301</v>
+      </c>
+      <c r="D129" t="s">
+        <v>221</v>
+      </c>
+      <c r="E129" t="s">
+        <v>300</v>
+      </c>
+      <c r="F129" t="s">
+        <v>509</v>
+      </c>
+      <c r="G129" t="s">
+        <v>302</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>508</v>
+      </c>
+      <c r="B130" t="s">
+        <v>410</v>
+      </c>
+      <c r="C130" t="s">
+        <v>301</v>
+      </c>
+      <c r="D130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E130" t="s">
+        <v>303</v>
+      </c>
+      <c r="F130" t="s">
+        <v>412</v>
+      </c>
+      <c r="G130" t="s">
+        <v>304</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>508</v>
+      </c>
+      <c r="B131" t="s">
+        <v>410</v>
+      </c>
+      <c r="C131" t="s">
+        <v>301</v>
+      </c>
+      <c r="D131" t="s">
+        <v>221</v>
+      </c>
+      <c r="E131" t="s">
+        <v>305</v>
+      </c>
+      <c r="F131" t="s">
+        <v>482</v>
+      </c>
+      <c r="G131" t="s">
+        <v>306</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>508</v>
+      </c>
+      <c r="B132" t="s">
+        <v>410</v>
+      </c>
+      <c r="C132" t="s">
+        <v>301</v>
+      </c>
+      <c r="D132" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" t="s">
+        <v>307</v>
+      </c>
+      <c r="F132" t="s">
+        <v>494</v>
+      </c>
+      <c r="G132" t="s">
+        <v>308</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>510</v>
+      </c>
+      <c r="B133" t="s">
+        <v>510</v>
+      </c>
+      <c r="C133" t="s">
+        <v>310</v>
+      </c>
+      <c r="D133" t="s">
+        <v>221</v>
+      </c>
+      <c r="E133" t="s">
+        <v>309</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>311</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>511</v>
+      </c>
+      <c r="B134" t="s">
+        <v>511</v>
+      </c>
+      <c r="C134" t="s">
+        <v>313</v>
+      </c>
+      <c r="D134" t="s">
+        <v>221</v>
+      </c>
+      <c r="E134" t="s">
+        <v>312</v>
+      </c>
+      <c r="F134" t="s">
+        <v>475</v>
+      </c>
+      <c r="G134" t="s">
+        <v>314</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>511</v>
+      </c>
+      <c r="B135" t="s">
+        <v>410</v>
+      </c>
+      <c r="C135" t="s">
+        <v>313</v>
+      </c>
+      <c r="D135" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135" t="s">
+        <v>315</v>
+      </c>
+      <c r="F135" t="s">
+        <v>507</v>
+      </c>
+      <c r="G135" t="s">
+        <v>316</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>512</v>
+      </c>
+      <c r="B136" t="s">
+        <v>512</v>
+      </c>
+      <c r="C136" t="s">
+        <v>318</v>
+      </c>
+      <c r="D136" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" t="s">
+        <v>317</v>
+      </c>
+      <c r="F136" t="s">
+        <v>482</v>
+      </c>
+      <c r="G136" t="s">
+        <v>319</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>512</v>
+      </c>
+      <c r="B137" t="s">
+        <v>410</v>
+      </c>
+      <c r="C137" t="s">
+        <v>318</v>
+      </c>
+      <c r="D137" t="s">
+        <v>221</v>
+      </c>
+      <c r="E137" t="s">
+        <v>320</v>
+      </c>
+      <c r="F137" t="s">
+        <v>486</v>
+      </c>
+      <c r="G137" t="s">
+        <v>321</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>513</v>
+      </c>
+      <c r="B138" t="s">
+        <v>513</v>
+      </c>
+      <c r="C138" t="s">
+        <v>323</v>
+      </c>
+      <c r="D138" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" t="s">
+        <v>322</v>
+      </c>
+      <c r="F138" t="s">
+        <v>475</v>
+      </c>
+      <c r="G138" t="s">
+        <v>324</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>513</v>
+      </c>
+      <c r="B139" t="s">
+        <v>410</v>
+      </c>
+      <c r="C139" t="s">
+        <v>323</v>
+      </c>
+      <c r="D139" t="s">
+        <v>221</v>
+      </c>
+      <c r="E139" t="s">
+        <v>325</v>
+      </c>
+      <c r="F139" t="s">
+        <v>514</v>
+      </c>
+      <c r="G139" t="s">
+        <v>326</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>513</v>
+      </c>
+      <c r="B140" t="s">
+        <v>410</v>
+      </c>
+      <c r="C140" t="s">
+        <v>323</v>
+      </c>
+      <c r="D140" t="s">
+        <v>221</v>
+      </c>
+      <c r="E140" t="s">
+        <v>327</v>
+      </c>
+      <c r="F140" t="s">
+        <v>515</v>
+      </c>
+      <c r="G140" t="s">
+        <v>328</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>516</v>
+      </c>
+      <c r="B141" t="s">
+        <v>516</v>
+      </c>
+      <c r="C141" t="s">
+        <v>330</v>
+      </c>
+      <c r="D141" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141" t="s">
+        <v>329</v>
+      </c>
+      <c r="F141" t="s">
+        <v>475</v>
+      </c>
+      <c r="G141" t="s">
+        <v>331</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>516</v>
+      </c>
+      <c r="B142" t="s">
+        <v>410</v>
+      </c>
+      <c r="C142" t="s">
+        <v>330</v>
+      </c>
+      <c r="D142" t="s">
+        <v>221</v>
+      </c>
+      <c r="E142" t="s">
+        <v>332</v>
+      </c>
+      <c r="F142" t="s">
+        <v>412</v>
+      </c>
+      <c r="G142" t="s">
+        <v>333</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>516</v>
+      </c>
+      <c r="B143" t="s">
+        <v>410</v>
+      </c>
+      <c r="C143" t="s">
+        <v>330</v>
+      </c>
+      <c r="D143" t="s">
+        <v>221</v>
+      </c>
+      <c r="E143" t="s">
+        <v>334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>482</v>
+      </c>
+      <c r="G143" t="s">
+        <v>335</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>516</v>
+      </c>
+      <c r="B144" t="s">
+        <v>410</v>
+      </c>
+      <c r="C144" t="s">
+        <v>330</v>
+      </c>
+      <c r="D144" t="s">
+        <v>221</v>
+      </c>
+      <c r="E144" t="s">
+        <v>336</v>
+      </c>
+      <c r="F144" t="s">
+        <v>517</v>
+      </c>
+      <c r="G144" t="s">
+        <v>337</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>516</v>
+      </c>
+      <c r="B145" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145" t="s">
+        <v>330</v>
+      </c>
+      <c r="D145" t="s">
+        <v>221</v>
+      </c>
+      <c r="E145" t="s">
+        <v>338</v>
+      </c>
+      <c r="F145" t="s">
+        <v>518</v>
+      </c>
+      <c r="G145" t="s">
+        <v>339</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>519</v>
+      </c>
+      <c r="B146" t="s">
+        <v>519</v>
+      </c>
+      <c r="C146" t="s">
+        <v>341</v>
+      </c>
+      <c r="D146" t="s">
+        <v>221</v>
+      </c>
+      <c r="E146" t="s">
+        <v>340</v>
+      </c>
+      <c r="F146" t="s">
+        <v>520</v>
+      </c>
+      <c r="G146" t="s">
+        <v>342</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>519</v>
+      </c>
+      <c r="B147" t="s">
+        <v>410</v>
+      </c>
+      <c r="C147" t="s">
+        <v>341</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" t="s">
+        <v>343</v>
+      </c>
+      <c r="F147" t="s">
+        <v>521</v>
+      </c>
+      <c r="G147" t="s">
+        <v>344</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>522</v>
+      </c>
+      <c r="B148" t="s">
+        <v>522</v>
+      </c>
+      <c r="C148" t="s">
+        <v>346</v>
+      </c>
+      <c r="D148" t="s">
+        <v>221</v>
+      </c>
+      <c r="E148" t="s">
+        <v>345</v>
+      </c>
+      <c r="F148" t="s">
+        <v>475</v>
+      </c>
+      <c r="G148" t="s">
+        <v>347</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>522</v>
+      </c>
+      <c r="B149" t="s">
+        <v>410</v>
+      </c>
+      <c r="C149" t="s">
+        <v>346</v>
+      </c>
+      <c r="D149" t="s">
+        <v>221</v>
+      </c>
+      <c r="E149" t="s">
+        <v>348</v>
+      </c>
+      <c r="F149" t="s">
+        <v>523</v>
+      </c>
+      <c r="G149" t="s">
+        <v>349</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>522</v>
+      </c>
+      <c r="B150" t="s">
+        <v>410</v>
+      </c>
+      <c r="C150" t="s">
+        <v>346</v>
+      </c>
+      <c r="D150" t="s">
+        <v>221</v>
+      </c>
+      <c r="E150" t="s">
+        <v>350</v>
+      </c>
+      <c r="F150" t="s">
+        <v>524</v>
+      </c>
+      <c r="G150" t="s">
+        <v>351</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>522</v>
+      </c>
+      <c r="B151" t="s">
+        <v>410</v>
+      </c>
+      <c r="C151" t="s">
+        <v>346</v>
+      </c>
+      <c r="D151" t="s">
+        <v>221</v>
+      </c>
+      <c r="E151" t="s">
+        <v>352</v>
+      </c>
+      <c r="F151" t="s">
+        <v>525</v>
+      </c>
+      <c r="G151" t="s">
+        <v>353</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>526</v>
+      </c>
+      <c r="B152" t="s">
+        <v>526</v>
+      </c>
+      <c r="C152" t="s">
+        <v>355</v>
+      </c>
+      <c r="D152" t="s">
+        <v>221</v>
+      </c>
+      <c r="E152" t="s">
+        <v>354</v>
+      </c>
+      <c r="F152" t="s">
+        <v>475</v>
+      </c>
+      <c r="G152" t="s">
+        <v>356</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>526</v>
+      </c>
+      <c r="B153" t="s">
+        <v>410</v>
+      </c>
+      <c r="C153" t="s">
+        <v>355</v>
+      </c>
+      <c r="D153" t="s">
+        <v>221</v>
+      </c>
+      <c r="E153" t="s">
+        <v>357</v>
+      </c>
+      <c r="F153" t="s">
+        <v>494</v>
+      </c>
+      <c r="G153" t="s">
+        <v>358</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>527</v>
+      </c>
+      <c r="B154" t="s">
+        <v>527</v>
+      </c>
+      <c r="C154" t="s">
+        <v>360</v>
+      </c>
+      <c r="D154" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" t="s">
+        <v>359</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>361</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>497</v>
+      </c>
+      <c r="B155" t="s">
+        <v>497</v>
+      </c>
+      <c r="C155" t="s">
+        <v>363</v>
+      </c>
+      <c r="D155" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" t="s">
+        <v>362</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>364</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>528</v>
+      </c>
+      <c r="B156" t="s">
+        <v>528</v>
+      </c>
+      <c r="C156" t="s">
+        <v>366</v>
+      </c>
+      <c r="D156" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" t="s">
+        <v>365</v>
+      </c>
+      <c r="F156" t="s">
+        <v>482</v>
+      </c>
+      <c r="G156" t="s">
+        <v>367</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>528</v>
+      </c>
+      <c r="B157" t="s">
+        <v>410</v>
+      </c>
+      <c r="C157" t="s">
+        <v>366</v>
+      </c>
+      <c r="D157" t="s">
+        <v>221</v>
+      </c>
+      <c r="E157" t="s">
+        <v>368</v>
+      </c>
+      <c r="F157" t="s">
+        <v>529</v>
+      </c>
+      <c r="G157" t="s">
+        <v>369</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>530</v>
+      </c>
+      <c r="B158" t="s">
+        <v>530</v>
+      </c>
+      <c r="C158" t="s">
+        <v>371</v>
+      </c>
+      <c r="D158" t="s">
+        <v>221</v>
+      </c>
+      <c r="E158" t="s">
+        <v>370</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>372</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>531</v>
+      </c>
+      <c r="B159" t="s">
+        <v>531</v>
+      </c>
+      <c r="C159" t="s">
+        <v>375</v>
+      </c>
+      <c r="D159" t="s">
+        <v>374</v>
+      </c>
+      <c r="E159" t="s">
+        <v>373</v>
+      </c>
+      <c r="F159" t="s">
+        <v>482</v>
+      </c>
+      <c r="G159" t="s">
+        <v>376</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>531</v>
+      </c>
+      <c r="B160" t="s">
+        <v>410</v>
+      </c>
+      <c r="C160" t="s">
+        <v>375</v>
+      </c>
+      <c r="D160" t="s">
+        <v>374</v>
+      </c>
+      <c r="E160" t="s">
+        <v>377</v>
+      </c>
+      <c r="F160" t="s">
+        <v>532</v>
+      </c>
+      <c r="G160" t="s">
+        <v>378</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>531</v>
+      </c>
+      <c r="B161" t="s">
+        <v>410</v>
+      </c>
+      <c r="C161" t="s">
+        <v>375</v>
+      </c>
+      <c r="D161" t="s">
+        <v>374</v>
+      </c>
+      <c r="E161" t="s">
+        <v>379</v>
+      </c>
+      <c r="F161" t="s">
+        <v>533</v>
+      </c>
+      <c r="G161" t="s">
+        <v>380</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>534</v>
+      </c>
+      <c r="B162" t="s">
+        <v>534</v>
+      </c>
+      <c r="C162" t="s">
+        <v>382</v>
+      </c>
+      <c r="D162" t="s">
+        <v>374</v>
+      </c>
+      <c r="E162" t="s">
+        <v>381</v>
+      </c>
+      <c r="F162" t="s">
+        <v>475</v>
+      </c>
+      <c r="G162" t="s">
+        <v>383</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>534</v>
+      </c>
+      <c r="B163" t="s">
+        <v>410</v>
+      </c>
+      <c r="C163" t="s">
+        <v>382</v>
+      </c>
+      <c r="D163" t="s">
+        <v>374</v>
+      </c>
+      <c r="E163" t="s">
+        <v>384</v>
+      </c>
+      <c r="F163" t="s">
+        <v>535</v>
+      </c>
+      <c r="G163" t="s">
+        <v>385</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>534</v>
+      </c>
+      <c r="B164" t="s">
+        <v>410</v>
+      </c>
+      <c r="C164" t="s">
+        <v>382</v>
+      </c>
+      <c r="D164" t="s">
+        <v>374</v>
+      </c>
+      <c r="E164" t="s">
+        <v>386</v>
+      </c>
+      <c r="F164" t="s">
+        <v>486</v>
+      </c>
+      <c r="G164" t="s">
+        <v>387</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>536</v>
+      </c>
+      <c r="B165" t="s">
+        <v>536</v>
+      </c>
+      <c r="C165" t="s">
+        <v>389</v>
+      </c>
+      <c r="D165" t="s">
+        <v>374</v>
+      </c>
+      <c r="E165" t="s">
+        <v>388</v>
+      </c>
+      <c r="F165" t="s">
+        <v>412</v>
+      </c>
+      <c r="G165" t="s">
+        <v>390</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>536</v>
+      </c>
+      <c r="B166" t="s">
+        <v>410</v>
+      </c>
+      <c r="C166" t="s">
+        <v>389</v>
+      </c>
+      <c r="D166" t="s">
+        <v>374</v>
+      </c>
+      <c r="E166" t="s">
+        <v>391</v>
+      </c>
+      <c r="F166" t="s">
+        <v>482</v>
+      </c>
+      <c r="G166" t="s">
+        <v>392</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>536</v>
+      </c>
+      <c r="B167" t="s">
+        <v>410</v>
+      </c>
+      <c r="C167" t="s">
+        <v>389</v>
+      </c>
+      <c r="D167" t="s">
+        <v>374</v>
+      </c>
+      <c r="E167" t="s">
+        <v>393</v>
+      </c>
+      <c r="F167" t="s">
+        <v>416</v>
+      </c>
+      <c r="G167" t="s">
+        <v>394</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>537</v>
+      </c>
+      <c r="B168" t="s">
+        <v>537</v>
+      </c>
+      <c r="C168" t="s">
+        <v>396</v>
+      </c>
+      <c r="D168" t="s">
+        <v>374</v>
+      </c>
+      <c r="E168" t="s">
+        <v>395</v>
+      </c>
+      <c r="F168" t="s">
+        <v>482</v>
+      </c>
+      <c r="G168" t="s">
+        <v>397</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>537</v>
+      </c>
+      <c r="B169" t="s">
+        <v>410</v>
+      </c>
+      <c r="C169" t="s">
+        <v>396</v>
+      </c>
+      <c r="D169" t="s">
+        <v>374</v>
+      </c>
+      <c r="E169" t="s">
+        <v>398</v>
+      </c>
+      <c r="F169" t="s">
+        <v>532</v>
+      </c>
+      <c r="G169" t="s">
+        <v>399</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>537</v>
+      </c>
+      <c r="B170" t="s">
+        <v>410</v>
+      </c>
+      <c r="C170" t="s">
+        <v>396</v>
+      </c>
+      <c r="D170" t="s">
+        <v>374</v>
+      </c>
+      <c r="E170" t="s">
+        <v>400</v>
+      </c>
+      <c r="F170" t="s">
+        <v>533</v>
+      </c>
+      <c r="G170" t="s">
+        <v>401</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\8061658_2_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cns\navi-master\navi\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2862C1-59AA-4E01-8DD2-07B782C1C066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550"/>
   </bookViews>
   <sheets>
     <sheet name="activity_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="407">
   <si>
     <t>code</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1231,12 +1230,29 @@
   </si>
   <si>
     <t>pvc_window_window</t>
+  </si>
+  <si>
+    <t>retaining soil</t>
+  </si>
+  <si>
+    <t>retaining soil-forming</t>
+  </si>
+  <si>
+    <t>retaining soil-removal</t>
+  </si>
+  <si>
+    <t>D12010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D12020</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2147,23 +2163,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
-    <col min="1999" max="2000" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="1999" max="2000" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>231</v>
       </c>
@@ -2180,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2197,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2214,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2231,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2248,7 +2264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2265,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2282,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2299,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2350,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2367,7 +2383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2401,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2418,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2435,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2452,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2469,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2486,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2503,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2537,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2571,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2588,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -2605,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2622,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2639,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2656,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2673,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2707,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2724,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2741,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2758,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2775,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2792,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2809,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2826,7 +2842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2860,7 +2876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2877,7 +2893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2894,7 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2911,7 +2927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2928,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2945,7 +2961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2962,7 +2978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2979,7 +2995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2996,7 +3012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3013,7 +3029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3030,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3047,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3064,7 +3080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3081,7 +3097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3098,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3115,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -3132,75 +3148,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>403</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>405</v>
       </c>
       <c r="E58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="E59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3208,84 +3224,84 @@
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>293</v>
+      </c>
+      <c r="D64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
         <v>78</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
         <v>295</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>79</v>
-      </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" t="s">
-        <v>296</v>
-      </c>
-      <c r="D65" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" t="s">
-        <v>82</v>
       </c>
       <c r="E66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3293,16 +3309,16 @@
         <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3310,16 +3326,16 @@
         <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -3327,16 +3343,16 @@
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3344,16 +3360,16 @@
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3361,16 +3377,16 @@
         <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3378,50 +3394,50 @@
         <v>46</v>
       </c>
       <c r="C72" t="s">
+        <v>301</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
         <v>303</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>88</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" t="s">
-        <v>304</v>
-      </c>
-      <c r="D73" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" t="s">
-        <v>305</v>
-      </c>
-      <c r="D74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3429,16 +3445,16 @@
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3446,16 +3462,16 @@
         <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3463,16 +3479,16 @@
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3480,16 +3496,16 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -3497,16 +3513,16 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -3514,50 +3530,50 @@
         <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -3565,16 +3581,16 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3582,16 +3598,16 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -3599,16 +3615,16 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3616,16 +3632,16 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3633,67 +3649,67 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
+        <v>316</v>
+      </c>
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>317</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
         <v>318</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>106</v>
       </c>
-      <c r="E87">
+      <c r="E89">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" t="s">
-        <v>319</v>
-      </c>
-      <c r="D88" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" t="s">
-        <v>320</v>
-      </c>
-      <c r="D89" t="s">
-        <v>110</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -3701,50 +3717,50 @@
         <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -3752,50 +3768,50 @@
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D96" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -3803,169 +3819,169 @@
         <v>119</v>
       </c>
       <c r="C97" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" t="s">
+        <v>327</v>
+      </c>
+      <c r="D98" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" t="s">
         <v>328</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>121</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s">
         <v>124</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>329</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D100" t="s">
         <v>122</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
         <v>124</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>330</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D101" t="s">
         <v>125</v>
       </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
         <v>127</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>331</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>126</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>123</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>332</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>128</v>
       </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" t="s">
         <v>131</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>333</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D104" t="s">
         <v>130</v>
       </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>123</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" t="s">
         <v>131</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C105" t="s">
         <v>334</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>132</v>
       </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
         <v>134</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
         <v>335</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D106" t="s">
         <v>133</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" t="s">
-        <v>336</v>
-      </c>
-      <c r="D105" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>123</v>
-      </c>
-      <c r="B106" t="s">
-        <v>136</v>
-      </c>
-      <c r="C106" t="s">
-        <v>337</v>
-      </c>
-      <c r="D106" t="s">
-        <v>137</v>
-      </c>
       <c r="E106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -3973,67 +3989,67 @@
         <v>136</v>
       </c>
       <c r="C107" t="s">
+        <v>336</v>
+      </c>
+      <c r="D107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" t="s">
         <v>338</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>138</v>
       </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>123</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
         <v>140</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>339</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>139</v>
       </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>123</v>
-      </c>
-      <c r="B109" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109" t="s">
-        <v>340</v>
-      </c>
-      <c r="D109" t="s">
-        <v>141</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>123</v>
-      </c>
-      <c r="B110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C110" t="s">
-        <v>341</v>
-      </c>
-      <c r="D110" t="s">
-        <v>143</v>
-      </c>
       <c r="E110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -4041,67 +4057,67 @@
         <v>142</v>
       </c>
       <c r="C111" t="s">
+        <v>340</v>
+      </c>
+      <c r="D111" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" t="s">
+        <v>143</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" t="s">
         <v>342</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>144</v>
       </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
         <v>146</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>343</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>145</v>
       </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" t="s">
-        <v>148</v>
-      </c>
-      <c r="C113" t="s">
-        <v>344</v>
-      </c>
-      <c r="D113" t="s">
-        <v>147</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114" t="s">
-        <v>148</v>
-      </c>
-      <c r="C114" t="s">
-        <v>345</v>
-      </c>
-      <c r="D114" t="s">
-        <v>149</v>
-      </c>
       <c r="E114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -4109,271 +4125,271 @@
         <v>148</v>
       </c>
       <c r="C115" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" t="s">
+        <v>345</v>
+      </c>
+      <c r="D116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" t="s">
         <v>346</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D117" t="s">
         <v>150</v>
       </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
         <v>152</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C118" t="s">
         <v>347</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D118" t="s">
         <v>151</v>
       </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
         <v>152</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
         <v>348</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D119" t="s">
         <v>153</v>
       </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
         <v>155</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>349</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D120" t="s">
         <v>154</v>
       </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>123</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
         <v>157</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C121" t="s">
         <v>350</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D121" t="s">
         <v>156</v>
       </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
         <v>159</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C122" t="s">
         <v>351</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D122" t="s">
         <v>158</v>
       </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
         <v>161</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C123" t="s">
         <v>352</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D123" t="s">
         <v>160</v>
       </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
         <v>353</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D124" t="s">
         <v>162</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
         <v>354</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D125" t="s">
         <v>163</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" t="s">
         <v>355</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D126" t="s">
         <v>164</v>
       </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" t="s">
         <v>166</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C127" t="s">
         <v>356</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D127" t="s">
         <v>165</v>
       </c>
-      <c r="E125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
         <v>166</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C128" t="s">
         <v>357</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D128" t="s">
         <v>167</v>
       </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>123</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" t="s">
         <v>169</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C129" t="s">
         <v>358</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D129" t="s">
         <v>168</v>
       </c>
-      <c r="E127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+      <c r="B130" t="s">
         <v>169</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C130" t="s">
         <v>359</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D130" t="s">
         <v>170</v>
       </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>123</v>
-      </c>
-      <c r="B129" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" t="s">
-        <v>360</v>
-      </c>
-      <c r="D129" t="s">
-        <v>171</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>123</v>
-      </c>
-      <c r="B130" t="s">
-        <v>172</v>
-      </c>
-      <c r="C130" t="s">
-        <v>361</v>
-      </c>
-      <c r="D130" t="s">
-        <v>173</v>
-      </c>
       <c r="E130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -4381,16 +4397,16 @@
         <v>172</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D131" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -4398,135 +4414,135 @@
         <v>172</v>
       </c>
       <c r="C132" t="s">
+        <v>361</v>
+      </c>
+      <c r="D132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" t="s">
+        <v>362</v>
+      </c>
+      <c r="D133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" t="s">
         <v>363</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D134" t="s">
         <v>175</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>123</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>123</v>
+      </c>
+      <c r="B135" t="s">
         <v>177</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C135" t="s">
         <v>364</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D135" t="s">
         <v>176</v>
       </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>123</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" t="s">
         <v>179</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C136" t="s">
         <v>365</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D136" t="s">
         <v>178</v>
       </c>
-      <c r="E134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>123</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>123</v>
+      </c>
+      <c r="B137" t="s">
         <v>179</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C137" t="s">
         <v>366</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D137" t="s">
         <v>180</v>
       </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>123</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>123</v>
+      </c>
+      <c r="B138" t="s">
         <v>182</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C138" t="s">
         <v>367</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D138" t="s">
         <v>181</v>
       </c>
-      <c r="E136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>123</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" t="s">
         <v>182</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C139" t="s">
         <v>368</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D139" t="s">
         <v>183</v>
       </c>
-      <c r="E137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>123</v>
-      </c>
-      <c r="B138" t="s">
-        <v>185</v>
-      </c>
-      <c r="C138" t="s">
-        <v>369</v>
-      </c>
-      <c r="D138" t="s">
-        <v>184</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>123</v>
-      </c>
-      <c r="B139" t="s">
-        <v>185</v>
-      </c>
-      <c r="C139" t="s">
-        <v>370</v>
-      </c>
-      <c r="D139" t="s">
-        <v>186</v>
-      </c>
       <c r="E139">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -4534,50 +4550,50 @@
         <v>185</v>
       </c>
       <c r="C140" t="s">
+        <v>369</v>
+      </c>
+      <c r="D140" t="s">
+        <v>184</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C141" t="s">
+        <v>370</v>
+      </c>
+      <c r="D141" t="s">
+        <v>186</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" t="s">
         <v>371</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D142" t="s">
         <v>187</v>
       </c>
-      <c r="E140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141" t="s">
-        <v>189</v>
-      </c>
-      <c r="C141" t="s">
-        <v>372</v>
-      </c>
-      <c r="D141" t="s">
-        <v>188</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>123</v>
-      </c>
-      <c r="B142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C142" t="s">
-        <v>373</v>
-      </c>
-      <c r="D142" t="s">
-        <v>190</v>
-      </c>
       <c r="E142">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>123</v>
       </c>
@@ -4585,16 +4601,16 @@
         <v>189</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>123</v>
       </c>
@@ -4602,16 +4618,16 @@
         <v>189</v>
       </c>
       <c r="C144" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D144" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>123</v>
       </c>
@@ -4619,84 +4635,84 @@
         <v>189</v>
       </c>
       <c r="C145" t="s">
+        <v>374</v>
+      </c>
+      <c r="D145" t="s">
+        <v>191</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146" t="s">
+        <v>192</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" t="s">
         <v>376</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D147" t="s">
         <v>193</v>
       </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>123</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>123</v>
+      </c>
+      <c r="B148" t="s">
         <v>195</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" t="s">
         <v>377</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D148" t="s">
         <v>194</v>
       </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>123</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>123</v>
+      </c>
+      <c r="B149" t="s">
         <v>195</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C149" t="s">
         <v>378</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D149" t="s">
         <v>196</v>
       </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>123</v>
-      </c>
-      <c r="B148" t="s">
-        <v>198</v>
-      </c>
-      <c r="C148" t="s">
-        <v>379</v>
-      </c>
-      <c r="D148" t="s">
-        <v>197</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>123</v>
-      </c>
-      <c r="B149" t="s">
-        <v>198</v>
-      </c>
-      <c r="C149" t="s">
-        <v>380</v>
-      </c>
-      <c r="D149" t="s">
-        <v>199</v>
-      </c>
       <c r="E149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>123</v>
       </c>
@@ -4704,16 +4720,16 @@
         <v>198</v>
       </c>
       <c r="C150" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D150" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -4721,169 +4737,169 @@
         <v>198</v>
       </c>
       <c r="C151" t="s">
+        <v>380</v>
+      </c>
+      <c r="D151" t="s">
+        <v>199</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>123</v>
+      </c>
+      <c r="B152" t="s">
+        <v>198</v>
+      </c>
+      <c r="C152" t="s">
+        <v>381</v>
+      </c>
+      <c r="D152" t="s">
+        <v>200</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>123</v>
+      </c>
+      <c r="B153" t="s">
+        <v>198</v>
+      </c>
+      <c r="C153" t="s">
         <v>382</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D153" t="s">
         <v>201</v>
       </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>123</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>123</v>
+      </c>
+      <c r="B154" t="s">
         <v>203</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C154" t="s">
         <v>383</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D154" t="s">
         <v>202</v>
       </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>123</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>123</v>
+      </c>
+      <c r="B155" t="s">
         <v>203</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C155" t="s">
         <v>384</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D155" t="s">
         <v>204</v>
       </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>123</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156" t="s">
         <v>206</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C156" t="s">
         <v>385</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D156" t="s">
         <v>205</v>
       </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>123</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>123</v>
+      </c>
+      <c r="B157" t="s">
         <v>208</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C157" t="s">
         <v>386</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D157" t="s">
         <v>207</v>
       </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>123</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>123</v>
+      </c>
+      <c r="B158" t="s">
         <v>210</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C158" t="s">
         <v>387</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D158" t="s">
         <v>209</v>
       </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>123</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159" t="s">
         <v>210</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C159" t="s">
         <v>388</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D159" t="s">
         <v>211</v>
       </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>123</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>123</v>
+      </c>
+      <c r="B160" t="s">
         <v>213</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>389</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D160" t="s">
         <v>212</v>
       </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>215</v>
-      </c>
-      <c r="B159" t="s">
-        <v>216</v>
-      </c>
-      <c r="C159" t="s">
-        <v>390</v>
-      </c>
-      <c r="D159" t="s">
-        <v>214</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>215</v>
-      </c>
-      <c r="B160" t="s">
-        <v>216</v>
-      </c>
-      <c r="C160" t="s">
-        <v>391</v>
-      </c>
-      <c r="D160" t="s">
-        <v>217</v>
-      </c>
       <c r="E160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>215</v>
       </c>
@@ -4891,50 +4907,50 @@
         <v>216</v>
       </c>
       <c r="C161" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D161" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>215</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D162" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>215</v>
       </c>
       <c r="B163" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C163" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D163" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>215</v>
       </c>
@@ -4942,50 +4958,50 @@
         <v>220</v>
       </c>
       <c r="C164" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D164" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>215</v>
       </c>
       <c r="B165" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C165" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D165" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>215</v>
       </c>
       <c r="B166" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C166" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D166" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>215</v>
       </c>
@@ -4993,50 +5009,50 @@
         <v>224</v>
       </c>
       <c r="C167" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D167" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>215</v>
       </c>
       <c r="B168" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C168" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D168" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>215</v>
       </c>
       <c r="B169" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C169" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D169" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -5044,12 +5060,46 @@
         <v>228</v>
       </c>
       <c r="C170" t="s">
+        <v>399</v>
+      </c>
+      <c r="D170" t="s">
+        <v>227</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>215</v>
+      </c>
+      <c r="B171" t="s">
+        <v>228</v>
+      </c>
+      <c r="C171" t="s">
+        <v>400</v>
+      </c>
+      <c r="D171" t="s">
+        <v>229</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" t="s">
+        <v>228</v>
+      </c>
+      <c r="C172" t="s">
         <v>401</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D172" t="s">
         <v>230</v>
       </c>
-      <c r="E170">
+      <c r="E172">
         <v>1</v>
       </c>
     </row>

--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="413">
   <si>
     <t>code</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -521,9 +521,6 @@
     <t>A43021</t>
   </si>
   <si>
-    <t>concreting</t>
-  </si>
-  <si>
     <t>A43022</t>
   </si>
   <si>
@@ -728,510 +725,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>fence_line_marking</t>
-  </si>
-  <si>
-    <t>fence_excavation</t>
-  </si>
-  <si>
-    <t>fence_compaction</t>
-  </si>
-  <si>
-    <t>fence_foundation</t>
-  </si>
-  <si>
-    <t>fence_backfilling</t>
-  </si>
-  <si>
-    <t>fence_steel</t>
-  </si>
-  <si>
-    <t>fence_panel</t>
-  </si>
-  <si>
-    <t>fence_wrapping</t>
-  </si>
-  <si>
-    <t>fence_inspection</t>
-  </si>
-  <si>
-    <t>t_crane_installation</t>
-  </si>
-  <si>
-    <t>t_crane_installation_form</t>
-  </si>
-  <si>
-    <t>t_crane_installation_rebar</t>
-  </si>
-  <si>
-    <t>t_crane_installation_casting</t>
-  </si>
-  <si>
-    <t>t_crane_installation_curing1</t>
-  </si>
-  <si>
-    <t>t_crane_installation_curing2</t>
-  </si>
-  <si>
-    <t>t_crane_installation_curing3</t>
-  </si>
-  <si>
-    <t>t_crane_installation_curing4</t>
-  </si>
-  <si>
-    <t>t_crane_installation_curing5</t>
-  </si>
-  <si>
-    <t>t_crane_installation_curing6</t>
-  </si>
-  <si>
-    <t>t_crane_installation_installation</t>
-  </si>
-  <si>
-    <t>t_crane_installation_inspection</t>
-  </si>
-  <si>
-    <t>t_crane_dismantling</t>
-  </si>
-  <si>
-    <t>t_crane_dismantling_machine</t>
-  </si>
-  <si>
-    <t>t_crane_dismantling_dismantling</t>
-  </si>
-  <si>
-    <t>lift_installation_form</t>
-  </si>
-  <si>
-    <t>lift_installation_rebar</t>
-  </si>
-  <si>
-    <t>lift_installation_casting</t>
-  </si>
-  <si>
-    <t>lift_installation_curing1</t>
-  </si>
-  <si>
-    <t>lift_installation_curing2</t>
-  </si>
-  <si>
-    <t>lift_installation_curing3</t>
-  </si>
-  <si>
-    <t>lift_installation_curing4</t>
-  </si>
-  <si>
-    <t>lift_installation_curing5</t>
-  </si>
-  <si>
-    <t>lift_installation_curing6</t>
-  </si>
-  <si>
-    <t>lift_installation_installation</t>
-  </si>
-  <si>
-    <t>lift_installation_inspection</t>
-  </si>
-  <si>
-    <t>lift_dismantling_dismantling</t>
-  </si>
-  <si>
-    <t>CIP_line_marking</t>
-  </si>
-  <si>
-    <t>CIP_guidebeam</t>
-  </si>
-  <si>
-    <t>CIP_soil_compaction_for_machine</t>
-  </si>
-  <si>
-    <t>CIP_dig&amp;rebar_1</t>
-  </si>
-  <si>
-    <t>CIP_casting_1</t>
-  </si>
-  <si>
-    <t>CIP_dig&amp;rebar_2</t>
-  </si>
-  <si>
-    <t>CIP_casting_2</t>
-  </si>
-  <si>
-    <t>CIP_dig&amp;rebar_3</t>
-  </si>
-  <si>
-    <t>CIP_casting_3</t>
-  </si>
-  <si>
-    <t>CIP_capbeam</t>
-  </si>
-  <si>
-    <t>CIP_capbeam_casting</t>
-  </si>
-  <si>
-    <t>waterblock_line_marking</t>
-  </si>
-  <si>
-    <t>waterblock_dig&amp;piping</t>
-  </si>
-  <si>
-    <t>waterblock_injection</t>
-  </si>
-  <si>
-    <t>waterblock_cleaning</t>
-  </si>
-  <si>
-    <t>excavation_test_planning</t>
-  </si>
-  <si>
-    <t>excavation_test_excavation</t>
-  </si>
-  <si>
-    <t>excavation_test_inspection</t>
-  </si>
-  <si>
-    <t>excavation_0</t>
-  </si>
-  <si>
-    <t>post_pile_line_marking</t>
-  </si>
-  <si>
-    <t>post_pile_dig&amp;piling</t>
-  </si>
-  <si>
-    <t>strut_installation_wale</t>
-  </si>
-  <si>
-    <t>strut_installation_strut</t>
-  </si>
-  <si>
-    <t>strut_installation_inspection</t>
-  </si>
-  <si>
-    <t>strut_dismatling_check</t>
-  </si>
-  <si>
-    <t>strut_dismatling_remove</t>
-  </si>
-  <si>
-    <t>foundation_vapor_proof&amp;lean_conc.</t>
-  </si>
-  <si>
-    <t>foundation_line_marking</t>
-  </si>
-  <si>
-    <t>foundation_re_bar</t>
-  </si>
-  <si>
-    <t>foundation_form</t>
-  </si>
-  <si>
-    <t>foundation_casting</t>
-  </si>
-  <si>
-    <t>foundation_curing</t>
-  </si>
-  <si>
-    <t>foundation_dismantling</t>
-  </si>
-  <si>
-    <t>foundation_backfill</t>
-  </si>
-  <si>
-    <t>rc_structure_vertical_line_marking</t>
-  </si>
-  <si>
-    <t>rc_structure_vertical_re_bar</t>
-  </si>
-  <si>
-    <t>rc_structure_vertical_embedding</t>
-  </si>
-  <si>
-    <t>rc_structure_vertical_form</t>
-  </si>
-  <si>
-    <t>rc_structure_vertical_inspection</t>
-  </si>
-  <si>
-    <t>rc_structure_vertical_casting</t>
-  </si>
-  <si>
-    <t>rc_structure_vertical_curing</t>
-  </si>
-  <si>
-    <t>rc_structure_vertical_dismantling</t>
-  </si>
-  <si>
-    <t>rc_structure_horizontal_form</t>
-  </si>
-  <si>
-    <t>rc_structure_horizontal_re_bar</t>
-  </si>
-  <si>
-    <t>rc_structure_horizontal_embedding</t>
-  </si>
-  <si>
-    <t>rc_structure_horizontal_inspection</t>
-  </si>
-  <si>
-    <t>rc_structure_horizontal_casting</t>
-  </si>
-  <si>
-    <t>rc_structure_horizontal_curing</t>
-  </si>
-  <si>
-    <t>rc_structure_horizontal_dismantling</t>
-  </si>
-  <si>
-    <t>benchmark_0</t>
-  </si>
-  <si>
-    <t>masonry_material_delivery</t>
-  </si>
-  <si>
-    <t>masonry_1st</t>
-  </si>
-  <si>
-    <t>masonry_2nd</t>
-  </si>
-  <si>
-    <t>plastering_surface</t>
-  </si>
-  <si>
-    <t>plastering_1st</t>
-  </si>
-  <si>
-    <t>plastering_final</t>
-  </si>
-  <si>
-    <t>drywall_line_marking</t>
-  </si>
-  <si>
-    <t>drywall_stud</t>
-  </si>
-  <si>
-    <t>drywall_gypsum_board</t>
-  </si>
-  <si>
-    <t>ceiling_frame_hanger</t>
-  </si>
-  <si>
-    <t>ceiling_frame_frame</t>
-  </si>
-  <si>
-    <t>ceiling_board_gypsum_board</t>
-  </si>
-  <si>
-    <t>grill_installation_0</t>
-  </si>
-  <si>
-    <t>steel_door_frame</t>
-  </si>
-  <si>
-    <t>steel_door_door</t>
-  </si>
-  <si>
-    <t>finishing stone_0</t>
-  </si>
-  <si>
-    <t>inside_wall_painting_surface</t>
-  </si>
-  <si>
-    <t>inside_wall_painting_1st</t>
-  </si>
-  <si>
-    <t>inside_wall_painting_final</t>
-  </si>
-  <si>
-    <t>glazing_0</t>
-  </si>
-  <si>
-    <t>ceiling_painting_surface</t>
-  </si>
-  <si>
-    <t>ceiling_painting_1st</t>
-  </si>
-  <si>
-    <t>ceiling_painting_final</t>
-  </si>
-  <si>
-    <t>ceiling_tex_0</t>
-  </si>
-  <si>
-    <t>inside_floor_painting_surface</t>
-  </si>
-  <si>
-    <t>inside_floor_painting_1st</t>
-  </si>
-  <si>
-    <t>inside_floor_painting_final</t>
-  </si>
-  <si>
-    <t>stair_floor_tile_surface</t>
-  </si>
-  <si>
-    <t>stair_floor_tile_tile</t>
-  </si>
-  <si>
-    <t>base_board_0</t>
-  </si>
-  <si>
-    <t>miscellaneous_0</t>
-  </si>
-  <si>
-    <t>loover_0</t>
-  </si>
-  <si>
-    <t>furniture_0</t>
-  </si>
-  <si>
-    <t>마감공사_0</t>
-  </si>
-  <si>
-    <t>마감공사_level_marking</t>
-  </si>
-  <si>
-    <t>마감공사_casting</t>
-  </si>
-  <si>
-    <t>concreting_floor_plastering</t>
-  </si>
-  <si>
-    <t>concreting_curing</t>
-  </si>
-  <si>
-    <t>wall_insulation_surface</t>
-  </si>
-  <si>
-    <t>wall_insulation_insulation</t>
-  </si>
-  <si>
-    <t>inside_floor_accessfloor_floor_coating</t>
-  </si>
-  <si>
-    <t>inside_floor_accessfloor_line_marking</t>
-  </si>
-  <si>
-    <t>inside_floor_accessfloor_frame</t>
-  </si>
-  <si>
-    <t>inside_floor_accessfloor_tile</t>
-  </si>
-  <si>
-    <t>electric_appliances_0</t>
-  </si>
-  <si>
-    <t>ceiling_insulation_surface</t>
-  </si>
-  <si>
-    <t>ceiling_insulation_insulation</t>
-  </si>
-  <si>
-    <t>wood_door_frame</t>
-  </si>
-  <si>
-    <t>wood_door_door</t>
-  </si>
-  <si>
-    <t>floor_heating_finishing_surface</t>
-  </si>
-  <si>
-    <t>floor_heating_finishing_mortar_1st</t>
-  </si>
-  <si>
-    <t>floor_heating_finishing_mortar_final</t>
-  </si>
-  <si>
-    <t>inside_floor_woodtile_surface</t>
-  </si>
-  <si>
-    <t>inside_floor_woodtile_line_marking</t>
-  </si>
-  <si>
-    <t>inside_floor_woodtile_frame</t>
-  </si>
-  <si>
-    <t>inside_floor_woodtile_woodtile</t>
-  </si>
-  <si>
-    <t>inside_floor_woodtile_finishing</t>
-  </si>
-  <si>
-    <t>inside_wall_paper_ceiling</t>
-  </si>
-  <si>
-    <t>inside_wall_paper_wall</t>
-  </si>
-  <si>
-    <t>inside_waterproofing_surface</t>
-  </si>
-  <si>
-    <t>inside_waterproofing_waterproofing</t>
-  </si>
-  <si>
-    <t>inside_waterproofing_test</t>
-  </si>
-  <si>
-    <t>inside_waterproofing_protection</t>
-  </si>
-  <si>
-    <t>inside_floor_tile_surface</t>
-  </si>
-  <si>
-    <t>inside_floor_tile_tile</t>
-  </si>
-  <si>
-    <t>inside_wall_tile_0</t>
-  </si>
-  <si>
-    <t>ceiling_tile_0</t>
-  </si>
-  <si>
-    <t>washbasin_installation_frame</t>
-  </si>
-  <si>
-    <t>washbasin_installation_basin</t>
-  </si>
-  <si>
-    <t>toilet_accessaries_nstallation_0</t>
-  </si>
-  <si>
-    <t>al_window_frame</t>
-  </si>
-  <si>
-    <t>al_window_insulation_filling</t>
-  </si>
-  <si>
-    <t>al_window_window</t>
-  </si>
-  <si>
-    <t>window_door_surface</t>
-  </si>
-  <si>
-    <t>window_door_hardware</t>
-  </si>
-  <si>
-    <t>window_door_door</t>
-  </si>
-  <si>
-    <t>outside_wall_finishing_line_marking</t>
-  </si>
-  <si>
-    <t>outside_wall_finishing_frame</t>
-  </si>
-  <si>
-    <t>outside_wall_finishing_panel</t>
-  </si>
-  <si>
-    <t>pvc_window_frame</t>
-  </si>
-  <si>
-    <t>pvc_window_insulation_filling</t>
-  </si>
-  <si>
-    <t>pvc_window_window</t>
-  </si>
-  <si>
     <t>retaining soil</t>
   </si>
   <si>
@@ -1241,12 +734,538 @@
     <t>retaining soil-removal</t>
   </si>
   <si>
+    <t>t-crane_installation</t>
+  </si>
+  <si>
+    <t>t-crane_dismantling</t>
+  </si>
+  <si>
+    <t>floor_tile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>concreting</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>concreting</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence-line_marking</t>
+  </si>
+  <si>
+    <t>fence-excavation</t>
+  </si>
+  <si>
+    <t>fence-compaction</t>
+  </si>
+  <si>
+    <t>fence-foundation</t>
+  </si>
+  <si>
+    <t>fence-backfilling</t>
+  </si>
+  <si>
+    <t>fence-steel</t>
+  </si>
+  <si>
+    <t>fence-panel</t>
+  </si>
+  <si>
+    <t>fence-wrapping</t>
+  </si>
+  <si>
+    <t>fence-inspection</t>
+  </si>
+  <si>
+    <t>t-crane_installation-form</t>
+  </si>
+  <si>
+    <t>t-crane_installation-rebar</t>
+  </si>
+  <si>
+    <t>t-crane_installation-casting</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing1</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing2</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing3</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing4</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing5</t>
+  </si>
+  <si>
+    <t>t-crane_installation-curing6</t>
+  </si>
+  <si>
+    <t>t-crane_installation-installation</t>
+  </si>
+  <si>
+    <t>t-crane_installation-inspection</t>
+  </si>
+  <si>
+    <t>t-crane_dismantling-machine</t>
+  </si>
+  <si>
+    <t>t-crane_dismantling-dismantling</t>
+  </si>
+  <si>
+    <t>lift_installation-form</t>
+  </si>
+  <si>
+    <t>lift_installation-rebar</t>
+  </si>
+  <si>
+    <t>lift_installation-casting</t>
+  </si>
+  <si>
+    <t>lift_installation-curing1</t>
+  </si>
+  <si>
+    <t>lift_installation-curing2</t>
+  </si>
+  <si>
+    <t>lift_installation-curing3</t>
+  </si>
+  <si>
+    <t>lift_installation-curing4</t>
+  </si>
+  <si>
+    <t>lift_installation-curing5</t>
+  </si>
+  <si>
+    <t>lift_installation-curing6</t>
+  </si>
+  <si>
+    <t>lift_installation-installation</t>
+  </si>
+  <si>
+    <t>lift_installation-inspection</t>
+  </si>
+  <si>
+    <t>lift_dismantling-dismantling</t>
+  </si>
+  <si>
+    <t>CIP-line_marking</t>
+  </si>
+  <si>
+    <t>CIP-guidebeam</t>
+  </si>
+  <si>
+    <t>CIP-soil_compaction_for_machine</t>
+  </si>
+  <si>
+    <t>CIP-dig&amp;rebar_1</t>
+  </si>
+  <si>
+    <t>CIP-casting_1</t>
+  </si>
+  <si>
+    <t>CIP-dig&amp;rebar_2</t>
+  </si>
+  <si>
+    <t>CIP-casting_2</t>
+  </si>
+  <si>
+    <t>CIP-dig&amp;rebar_3</t>
+  </si>
+  <si>
+    <t>CIP-casting_3</t>
+  </si>
+  <si>
+    <t>CIP-capbeam</t>
+  </si>
+  <si>
+    <t>CIP-capbeam_casting</t>
+  </si>
+  <si>
+    <t>waterblock-line_marking</t>
+  </si>
+  <si>
+    <t>waterblock-dig&amp;piping</t>
+  </si>
+  <si>
+    <t>waterblock-injection</t>
+  </si>
+  <si>
+    <t>waterblock-cleaning</t>
+  </si>
+  <si>
+    <t>excavation_test-planning</t>
+  </si>
+  <si>
+    <t>excavation_test-excavation</t>
+  </si>
+  <si>
+    <t>excavation_test-inspection</t>
+  </si>
+  <si>
+    <t>excavation-0</t>
+  </si>
+  <si>
+    <t>post_pile-line_marking</t>
+  </si>
+  <si>
+    <t>post_pile-dig&amp;piling</t>
+  </si>
+  <si>
+    <t>strut_installation-wale</t>
+  </si>
+  <si>
+    <t>strut_installation-strut</t>
+  </si>
+  <si>
+    <t>strut_installation-inspection</t>
+  </si>
+  <si>
+    <t>strut_dismatling-check</t>
+  </si>
+  <si>
+    <t>strut_dismatling-remove</t>
+  </si>
+  <si>
+    <t>foundation-vapor_proof&amp;lean_conc.</t>
+  </si>
+  <si>
+    <t>foundation-line_marking</t>
+  </si>
+  <si>
+    <t>foundation-re-bar</t>
+  </si>
+  <si>
+    <t>foundation-form</t>
+  </si>
+  <si>
+    <t>foundation-casting</t>
+  </si>
+  <si>
+    <t>foundation-curing</t>
+  </si>
+  <si>
+    <t>foundation-dismantling</t>
+  </si>
+  <si>
+    <t>foundation-backfill</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-line_marking</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-re-bar</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-embedding</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-form</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-inspection</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-casting</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-curing</t>
+  </si>
+  <si>
+    <t>rc_structure_vertical-dismantling</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-form</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-re-bar</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-embedding</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-inspection</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-casting</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-curing</t>
+  </si>
+  <si>
+    <t>rc_structure_horizontal-dismantling</t>
+  </si>
+  <si>
+    <t>benchmark-0</t>
+  </si>
+  <si>
+    <t>masonry-material_delivery</t>
+  </si>
+  <si>
+    <t>masonry-1st</t>
+  </si>
+  <si>
+    <t>masonry-2nd</t>
+  </si>
+  <si>
+    <t>plastering-surface</t>
+  </si>
+  <si>
+    <t>plastering-1st</t>
+  </si>
+  <si>
+    <t>plastering-final</t>
+  </si>
+  <si>
+    <t>drywall-line_marking</t>
+  </si>
+  <si>
+    <t>drywall-stud</t>
+  </si>
+  <si>
+    <t>drywall-gypsum_board</t>
+  </si>
+  <si>
+    <t>ceiling_frame-hanger</t>
+  </si>
+  <si>
+    <t>ceiling_frame-frame</t>
+  </si>
+  <si>
+    <t>ceiling_board-gypsum_board</t>
+  </si>
+  <si>
+    <t>grill_installation-0</t>
+  </si>
+  <si>
+    <t>steel_door-frame</t>
+  </si>
+  <si>
+    <t>steel_door-door</t>
+  </si>
+  <si>
+    <t>finishing stone-0</t>
+  </si>
+  <si>
+    <t>inside_wall_painting-surface</t>
+  </si>
+  <si>
+    <t>inside_wall_painting-1st</t>
+  </si>
+  <si>
+    <t>inside_wall_painting-final</t>
+  </si>
+  <si>
+    <t>glazing-0</t>
+  </si>
+  <si>
+    <t>ceiling_painting-surface</t>
+  </si>
+  <si>
+    <t>ceiling_painting-1st</t>
+  </si>
+  <si>
+    <t>ceiling_painting-final</t>
+  </si>
+  <si>
+    <t>ceiling_tex-0</t>
+  </si>
+  <si>
+    <t>inside_floor_painting-surface</t>
+  </si>
+  <si>
+    <t>inside_floor_painting-1st</t>
+  </si>
+  <si>
+    <t>inside_floor_painting-final</t>
+  </si>
+  <si>
+    <t>stair_floor_tile-surface</t>
+  </si>
+  <si>
+    <t>stair_floor_tile-tile</t>
+  </si>
+  <si>
+    <t>base_board-0</t>
+  </si>
+  <si>
+    <t>miscellaneous-0</t>
+  </si>
+  <si>
+    <t>loover-0</t>
+  </si>
+  <si>
+    <t>furniture-0</t>
+  </si>
+  <si>
+    <t>floor_tile-0</t>
+  </si>
+  <si>
+    <t>concreting-level_marking</t>
+  </si>
+  <si>
+    <t>concreting-casting</t>
+  </si>
+  <si>
+    <t>concreting-floor_plastering</t>
+  </si>
+  <si>
+    <t>concreting-curing</t>
+  </si>
+  <si>
+    <t>wall_insulation-surface</t>
+  </si>
+  <si>
+    <t>wall_insulation-insulation</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor-floor_coating</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor-line_marking</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor-frame</t>
+  </si>
+  <si>
+    <t>inside_floor_accessfloor-tile</t>
+  </si>
+  <si>
+    <t>electric_appliances-0</t>
+  </si>
+  <si>
+    <t>ceiling_insulation-surface</t>
+  </si>
+  <si>
+    <t>ceiling_insulation-insulation</t>
+  </si>
+  <si>
+    <t>wood_door-frame</t>
+  </si>
+  <si>
+    <t>wood_door-door</t>
+  </si>
+  <si>
+    <t>floor_heating_finishing-surface</t>
+  </si>
+  <si>
+    <t>floor_heating_finishing-mortar_1st</t>
+  </si>
+  <si>
+    <t>floor_heating_finishing-mortar_final</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-surface</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-line_marking</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-frame</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-woodtile</t>
+  </si>
+  <si>
+    <t>inside_floor_woodtile-finishing</t>
+  </si>
+  <si>
+    <t>inside_wall_paper-ceiling</t>
+  </si>
+  <si>
+    <t>inside_wall_paper-wall</t>
+  </si>
+  <si>
+    <t>inside_waterproofing-surface</t>
+  </si>
+  <si>
+    <t>inside_waterproofing-waterproofing</t>
+  </si>
+  <si>
+    <t>inside_waterproofing-test</t>
+  </si>
+  <si>
+    <t>inside_waterproofing-protection</t>
+  </si>
+  <si>
+    <t>inside_floor_tile-surface</t>
+  </si>
+  <si>
+    <t>inside_floor_tile-tile</t>
+  </si>
+  <si>
+    <t>inside_wall_tile-0</t>
+  </si>
+  <si>
+    <t>ceiling_tile-0</t>
+  </si>
+  <si>
+    <t>washbasin_installation-frame</t>
+  </si>
+  <si>
+    <t>washbasin_installation-basin</t>
+  </si>
+  <si>
+    <t>toilet_accessaries_nstallation-0</t>
+  </si>
+  <si>
+    <t>al_window-frame</t>
+  </si>
+  <si>
+    <t>al_window-insulation_filling</t>
+  </si>
+  <si>
+    <t>al_window-window</t>
+  </si>
+  <si>
+    <t>window_door-surface</t>
+  </si>
+  <si>
+    <t>window_door-hardware</t>
+  </si>
+  <si>
+    <t>window_door-door</t>
+  </si>
+  <si>
+    <t>outside_wall_finishing-line_marking</t>
+  </si>
+  <si>
+    <t>outside_wall_finishing-frame</t>
+  </si>
+  <si>
+    <t>outside_wall_finishing-panel</t>
+  </si>
+  <si>
+    <t>pvc_window-frame</t>
+  </si>
+  <si>
+    <t>pvc_window-insulation_filling</t>
+  </si>
+  <si>
+    <t>pvc_window-window</t>
+  </si>
+  <si>
+    <t>W10041</t>
+  </si>
+  <si>
+    <t>W10051</t>
+  </si>
+  <si>
+    <t>W10061</t>
+  </si>
+  <si>
+    <t>W10080</t>
+  </si>
+  <si>
     <t>D12010</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>D12020</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2166,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2181,13 +2200,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
         <v>231</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>232</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2255,7 +2274,7 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -2272,7 +2291,7 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -2289,7 +2308,7 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -2306,7 +2325,7 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -2323,7 +2342,7 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -2340,7 +2359,7 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2357,7 +2376,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -2374,7 +2393,7 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -2391,7 +2410,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -2405,10 +2424,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2422,10 +2441,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2439,10 +2458,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2456,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -2473,10 +2492,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -2490,10 +2509,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -2507,10 +2526,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -2524,10 +2543,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -2541,10 +2560,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -2558,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -2575,10 +2594,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2592,10 +2611,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2609,10 +2628,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -2629,7 +2648,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -2646,7 +2665,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2663,7 +2682,7 @@
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -2680,7 +2699,7 @@
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -2697,7 +2716,7 @@
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -2714,7 +2733,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
         <v>30</v>
@@ -2731,7 +2750,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D33" t="s">
         <v>31</v>
@@ -2748,7 +2767,7 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
@@ -2765,7 +2784,7 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -2782,7 +2801,7 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -2799,7 +2818,7 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
@@ -2816,7 +2835,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -2833,7 +2852,7 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
         <v>49</v>
@@ -2850,7 +2869,7 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
@@ -2867,7 +2886,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -2884,7 +2903,7 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
@@ -2901,10 +2920,10 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>407</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -2918,7 +2937,7 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
@@ -2935,10 +2954,10 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2952,10 +2971,10 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2969,10 +2988,10 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2986,10 +3005,10 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E48">
         <v>10</v>
@@ -3003,10 +3022,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>410</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -3020,7 +3039,7 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D50" t="s">
         <v>58</v>
@@ -3037,7 +3056,7 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D51" t="s">
         <v>60</v>
@@ -3054,7 +3073,7 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D52" t="s">
         <v>61</v>
@@ -3071,7 +3090,7 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D53" t="s">
         <v>62</v>
@@ -3088,7 +3107,7 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D54" t="s">
         <v>63</v>
@@ -3105,7 +3124,7 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D55" t="s">
         <v>66</v>
@@ -3122,7 +3141,7 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D56" t="s">
         <v>67</v>
@@ -3139,7 +3158,7 @@
         <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
@@ -3150,36 +3169,36 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>402</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>403</v>
+        <v>294</v>
       </c>
       <c r="D58" t="s">
-        <v>405</v>
+        <v>69</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>402</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>404</v>
+        <v>295</v>
       </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>72</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -3187,16 +3206,16 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
@@ -3204,13 +3223,13 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -3224,10 +3243,10 @@
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -3238,16 +3257,16 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -3255,47 +3274,47 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -3309,13 +3328,13 @@
         <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
@@ -3326,13 +3345,13 @@
         <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
@@ -3343,13 +3362,13 @@
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -3360,13 +3379,13 @@
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -3377,10 +3396,10 @@
         <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -3394,47 +3413,47 @@
         <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -3445,13 +3464,13 @@
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
@@ -3462,10 +3481,10 @@
         <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3479,13 +3498,13 @@
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
@@ -3496,13 +3515,13 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
@@ -3513,10 +3532,10 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -3530,13 +3549,13 @@
         <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
@@ -3544,16 +3563,16 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
@@ -3561,13 +3580,13 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -3581,13 +3600,13 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
@@ -3598,13 +3617,13 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D84" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
@@ -3615,13 +3634,13 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
@@ -3632,10 +3651,10 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D86" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -3649,47 +3668,47 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
@@ -3697,16 +3716,16 @@
         <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
@@ -3717,13 +3736,13 @@
         <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
@@ -3731,16 +3750,16 @@
         <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
@@ -3748,13 +3767,13 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3768,13 +3787,13 @@
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
@@ -3782,16 +3801,16 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
@@ -3799,13 +3818,13 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D96" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3819,27 +3838,27 @@
         <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D98" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3847,16 +3866,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3867,13 +3886,13 @@
         <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3884,13 +3903,13 @@
         <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3901,13 +3920,13 @@
         <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3918,13 +3937,13 @@
         <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D103" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3935,13 +3954,13 @@
         <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3952,16 +3971,16 @@
         <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -3969,13 +3988,13 @@
         <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D106" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3989,13 +4008,13 @@
         <v>136</v>
       </c>
       <c r="C107" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
@@ -4003,13 +4022,13 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4020,13 +4039,13 @@
         <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D109" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4037,13 +4056,13 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C110" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -4057,10 +4076,10 @@
         <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D111" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -4071,13 +4090,13 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -4088,13 +4107,13 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C113" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D113" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -4105,13 +4124,13 @@
         <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -4125,10 +4144,10 @@
         <v>148</v>
       </c>
       <c r="C115" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D115" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -4139,13 +4158,13 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C116" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -4156,13 +4175,13 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -4173,16 +4192,16 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
@@ -4190,13 +4209,13 @@
         <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C119" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D119" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -4207,16 +4226,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D120" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
@@ -4224,13 +4243,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D121" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -4241,13 +4260,13 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="C122" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D122" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4258,13 +4277,13 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4275,13 +4294,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="C124" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D124" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4292,16 +4311,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="C125" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
@@ -4309,16 +4328,16 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="C126" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D126" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
@@ -4326,13 +4345,13 @@
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C127" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -4343,16 +4362,16 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C128" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D128" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
@@ -4360,16 +4379,16 @@
         <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D129" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
@@ -4377,16 +4396,16 @@
         <v>123</v>
       </c>
       <c r="B130" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C130" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D130" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
@@ -4394,13 +4413,13 @@
         <v>123</v>
       </c>
       <c r="B131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C131" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D131" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -4411,16 +4430,16 @@
         <v>123</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D132" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
@@ -4428,13 +4447,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C133" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D133" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -4445,16 +4464,16 @@
         <v>123</v>
       </c>
       <c r="B134" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
@@ -4462,13 +4481,13 @@
         <v>123</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D135" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -4479,13 +4498,13 @@
         <v>123</v>
       </c>
       <c r="B136" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D136" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -4496,16 +4515,16 @@
         <v>123</v>
       </c>
       <c r="B137" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D137" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
@@ -4513,16 +4532,16 @@
         <v>123</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C138" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D138" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
@@ -4530,13 +4549,13 @@
         <v>123</v>
       </c>
       <c r="B139" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C139" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -4547,16 +4566,16 @@
         <v>123</v>
       </c>
       <c r="B140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C140" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D140" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
@@ -4564,16 +4583,16 @@
         <v>123</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C141" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D141" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
@@ -4581,13 +4600,13 @@
         <v>123</v>
       </c>
       <c r="B142" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D142" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -4598,13 +4617,13 @@
         <v>123</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C143" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D143" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -4615,16 +4634,16 @@
         <v>123</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C144" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
@@ -4632,13 +4651,13 @@
         <v>123</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C145" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D145" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -4649,13 +4668,13 @@
         <v>123</v>
       </c>
       <c r="B146" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C146" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D146" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -4666,13 +4685,13 @@
         <v>123</v>
       </c>
       <c r="B147" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C147" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D147" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -4683,13 +4702,13 @@
         <v>123</v>
       </c>
       <c r="B148" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C148" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D148" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -4700,13 +4719,13 @@
         <v>123</v>
       </c>
       <c r="B149" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C149" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D149" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -4717,13 +4736,13 @@
         <v>123</v>
       </c>
       <c r="B150" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C150" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D150" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -4734,13 +4753,13 @@
         <v>123</v>
       </c>
       <c r="B151" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C151" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D151" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -4751,13 +4770,13 @@
         <v>123</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C152" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D152" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -4768,13 +4787,13 @@
         <v>123</v>
       </c>
       <c r="B153" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C153" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D153" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -4785,13 +4804,13 @@
         <v>123</v>
       </c>
       <c r="B154" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C154" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D154" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -4802,13 +4821,13 @@
         <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D155" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -4819,13 +4838,13 @@
         <v>123</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C156" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D156" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4836,13 +4855,13 @@
         <v>123</v>
       </c>
       <c r="B157" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C157" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D157" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -4853,13 +4872,13 @@
         <v>123</v>
       </c>
       <c r="B158" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C158" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D158" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -4867,16 +4886,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C159" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D159" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4884,16 +4903,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="B160" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C160" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D160" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -4901,16 +4920,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
+        <v>214</v>
+      </c>
+      <c r="B161" t="s">
         <v>215</v>
       </c>
-      <c r="B161" t="s">
-        <v>216</v>
-      </c>
       <c r="C161" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D161" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -4918,16 +4937,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C162" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D162" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -4935,16 +4954,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C163" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D163" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -4952,16 +4971,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B164" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C164" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D164" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -4969,33 +4988,33 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B165" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C165" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D165" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B166" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D166" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -5003,33 +5022,33 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C167" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D167" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B168" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C168" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D168" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -5037,16 +5056,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B169" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C169" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D169" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -5054,16 +5073,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C170" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D170" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -5071,36 +5090,36 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="B171" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C171" t="s">
-        <v>400</v>
+        <v>234</v>
       </c>
       <c r="D171" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="B172" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C172" t="s">
-        <v>401</v>
+        <v>235</v>
       </c>
       <c r="D172" t="s">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cns\navi-master\navi\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\722556_4_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486AE113-6983-4C77-A21C-EF13CA4FEBFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activity_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="414">
   <si>
     <t>code</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1266,12 +1267,16 @@
   </si>
   <si>
     <t>D12020</t>
+  </si>
+  <si>
+    <t>pre_dist</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2182,23 +2187,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.9140625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="1999" max="2000" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="1999" max="2000" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>230</v>
       </c>
@@ -2214,8 +2219,11 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2231,8 +2239,12 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2248,8 +2260,12 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2265,8 +2281,12 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2282,8 +2302,12 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2299,8 +2323,12 @@
       <c r="E6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2316,8 +2344,12 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2333,8 +2365,12 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2350,8 +2386,12 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2367,8 +2407,12 @@
       <c r="E10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2384,8 +2428,12 @@
       <c r="E11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2401,8 +2449,12 @@
       <c r="E12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2418,8 +2470,12 @@
       <c r="E13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2435,8 +2491,12 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2452,8 +2512,12 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2469,8 +2533,12 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2486,8 +2554,12 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2503,8 +2575,12 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2520,8 +2596,12 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2537,8 +2617,12 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2554,8 +2638,12 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2571,8 +2659,12 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2588,8 +2680,12 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2605,8 +2701,12 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2622,8 +2722,12 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -2639,8 +2743,12 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2656,8 +2764,12 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2673,8 +2785,12 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2690,8 +2806,12 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2707,8 +2827,12 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2724,8 +2848,12 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2741,8 +2869,12 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2758,8 +2890,12 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2775,8 +2911,12 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2792,8 +2932,12 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2809,8 +2953,12 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2826,8 +2974,12 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2843,8 +2995,12 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2860,8 +3016,12 @@
       <c r="E39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2877,8 +3037,12 @@
       <c r="E40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2894,8 +3058,12 @@
       <c r="E41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2911,8 +3079,12 @@
       <c r="E42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2928,8 +3100,12 @@
       <c r="E43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2945,8 +3121,12 @@
       <c r="E44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2962,8 +3142,12 @@
       <c r="E45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2979,8 +3163,12 @@
       <c r="E46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2996,8 +3184,12 @@
       <c r="E47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3013,8 +3205,12 @@
       <c r="E48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -3030,8 +3226,12 @@
       <c r="E49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3047,8 +3247,12 @@
       <c r="E50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3268,12 @@
       <c r="E51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3081,8 +3289,12 @@
       <c r="E52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3098,8 +3310,12 @@
       <c r="E53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3115,8 +3331,12 @@
       <c r="E54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3132,8 +3352,12 @@
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3149,8 +3373,12 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -3166,8 +3394,12 @@
       <c r="E57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -3183,8 +3415,12 @@
       <c r="E58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -3200,8 +3436,12 @@
       <c r="E59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3217,8 +3457,12 @@
       <c r="E60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3234,8 +3478,12 @@
       <c r="E61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3251,8 +3499,12 @@
       <c r="E62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -3268,8 +3520,12 @@
       <c r="E63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3285,8 +3541,12 @@
       <c r="E64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -3302,8 +3562,12 @@
       <c r="E65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -3319,8 +3583,12 @@
       <c r="E66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3336,8 +3604,12 @@
       <c r="E67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67">
+        <f t="shared" ref="F67:F130" ca="1" si="1">RANDBETWEEN(0,10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3353,8 +3625,12 @@
       <c r="E68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -3370,8 +3646,12 @@
       <c r="E69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3387,8 +3667,12 @@
       <c r="E70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3404,8 +3688,12 @@
       <c r="E71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3421,8 +3709,12 @@
       <c r="E72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -3438,8 +3730,12 @@
       <c r="E73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -3455,8 +3751,12 @@
       <c r="E74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3472,8 +3772,12 @@
       <c r="E75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3489,8 +3793,12 @@
       <c r="E76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3506,8 +3814,12 @@
       <c r="E77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3523,8 +3835,12 @@
       <c r="E78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -3540,8 +3856,12 @@
       <c r="E79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -3557,8 +3877,12 @@
       <c r="E80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -3574,8 +3898,12 @@
       <c r="E81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -3591,8 +3919,12 @@
       <c r="E82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -3608,8 +3940,12 @@
       <c r="E83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3625,8 +3961,12 @@
       <c r="E84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -3642,8 +3982,12 @@
       <c r="E85">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3659,8 +4003,12 @@
       <c r="E86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3676,8 +4024,12 @@
       <c r="E87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -3693,8 +4045,12 @@
       <c r="E88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -3710,8 +4066,12 @@
       <c r="E89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -3727,8 +4087,12 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -3744,8 +4108,12 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -3761,8 +4129,12 @@
       <c r="E92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -3778,8 +4150,12 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -3795,8 +4171,12 @@
       <c r="E94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -3812,8 +4192,12 @@
       <c r="E95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -3829,8 +4213,12 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -3846,8 +4234,12 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -3863,8 +4255,12 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -3880,8 +4276,12 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -3897,8 +4297,12 @@
       <c r="E100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -3914,8 +4318,12 @@
       <c r="E101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -3931,8 +4339,12 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -3948,8 +4360,12 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -3965,8 +4381,12 @@
       <c r="E104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -3982,8 +4402,12 @@
       <c r="E105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -3999,8 +4423,12 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -4016,8 +4444,12 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -4033,8 +4465,12 @@
       <c r="E108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -4050,8 +4486,12 @@
       <c r="E109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -4067,8 +4507,12 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -4084,8 +4528,12 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -4101,8 +4549,12 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -4118,8 +4570,12 @@
       <c r="E113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -4135,8 +4591,12 @@
       <c r="E114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -4152,8 +4612,12 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -4169,8 +4633,12 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F116">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -4186,8 +4654,12 @@
       <c r="E117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F117">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -4203,8 +4675,12 @@
       <c r="E118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F118">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -4220,8 +4696,12 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F119">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -4237,8 +4717,12 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F120">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -4254,8 +4738,12 @@
       <c r="E121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F121">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -4271,8 +4759,12 @@
       <c r="E122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F122">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -4288,8 +4780,12 @@
       <c r="E123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F123">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4305,8 +4801,12 @@
       <c r="E124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F124">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4322,8 +4822,12 @@
       <c r="E125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F125">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -4339,8 +4843,12 @@
       <c r="E126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -4356,8 +4864,12 @@
       <c r="E127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F127">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -4373,8 +4885,12 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -4390,8 +4906,12 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -4407,8 +4927,12 @@
       <c r="E130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F130">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -4424,8 +4948,12 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131">
+        <f t="shared" ref="F131:F172" ca="1" si="2">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -4441,8 +4969,12 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F132">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -4458,8 +4990,12 @@
       <c r="E133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -4475,8 +5011,12 @@
       <c r="E134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F134">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -4492,8 +5032,12 @@
       <c r="E135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F135">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -4509,8 +5053,12 @@
       <c r="E136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F136">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -4526,8 +5074,12 @@
       <c r="E137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F137">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -4543,8 +5095,12 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F138">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -4560,8 +5116,12 @@
       <c r="E139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F139">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -4577,8 +5137,12 @@
       <c r="E140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F140">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>123</v>
       </c>
@@ -4594,8 +5158,12 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F141">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>123</v>
       </c>
@@ -4611,8 +5179,12 @@
       <c r="E142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F142">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>123</v>
       </c>
@@ -4628,8 +5200,12 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F143">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>123</v>
       </c>
@@ -4645,8 +5221,12 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F144">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>123</v>
       </c>
@@ -4662,8 +5242,12 @@
       <c r="E145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F145">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>123</v>
       </c>
@@ -4679,8 +5263,12 @@
       <c r="E146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F146">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>123</v>
       </c>
@@ -4696,8 +5284,12 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F147">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -4713,8 +5305,12 @@
       <c r="E148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F148">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>123</v>
       </c>
@@ -4730,8 +5326,12 @@
       <c r="E149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F149">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>123</v>
       </c>
@@ -4747,8 +5347,12 @@
       <c r="E150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F150">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -4764,8 +5368,12 @@
       <c r="E151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F151">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -4781,8 +5389,12 @@
       <c r="E152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F152">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>123</v>
       </c>
@@ -4798,8 +5410,12 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F153">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>123</v>
       </c>
@@ -4815,8 +5431,12 @@
       <c r="E154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F154">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>123</v>
       </c>
@@ -4832,8 +5452,12 @@
       <c r="E155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F155">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>123</v>
       </c>
@@ -4849,8 +5473,12 @@
       <c r="E156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F156">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>123</v>
       </c>
@@ -4866,8 +5494,12 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F157">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -4883,8 +5515,12 @@
       <c r="E158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F158">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>214</v>
       </c>
@@ -4900,8 +5536,12 @@
       <c r="E159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F159">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>214</v>
       </c>
@@ -4917,8 +5557,12 @@
       <c r="E160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F160">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -4934,8 +5578,12 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F161">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>214</v>
       </c>
@@ -4951,8 +5599,12 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F162">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>214</v>
       </c>
@@ -4968,8 +5620,12 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F163">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>214</v>
       </c>
@@ -4985,8 +5641,12 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F164">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>214</v>
       </c>
@@ -5002,8 +5662,12 @@
       <c r="E165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F165">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -5019,8 +5683,12 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F166">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -5036,8 +5704,12 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F167">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -5053,8 +5725,12 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F168">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -5070,8 +5746,12 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F169">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>214</v>
       </c>
@@ -5087,8 +5767,12 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F170">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>64</v>
       </c>
@@ -5104,8 +5788,12 @@
       <c r="E171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F171">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>64</v>
       </c>
@@ -5120,6 +5808,10 @@
       </c>
       <c r="E172">
         <v>2</v>
+      </c>
+      <c r="F172">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\722556_4_11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cns\navi-master\navi\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486AE113-6983-4C77-A21C-EF13CA4FEBFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550"/>
   </bookViews>
   <sheets>
     <sheet name="activity_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">activity_list!$A$1:$F$172</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1276,7 +1278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2187,23 +2189,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
-    <col min="1999" max="2000" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="1999" max="2000" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>230</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2240,11 +2242,11 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <f ca="1">RANDBETWEEN(0,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2261,11 +2263,11 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F3:F66" ca="1" si="0">RANDBETWEEN(0,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2283,10 +2285,10 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2304,10 +2306,10 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2325,10 +2327,10 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2346,10 +2348,10 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2367,10 +2369,10 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2388,10 +2390,10 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2409,10 +2411,10 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2430,10 +2432,10 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2451,10 +2453,10 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2493,10 +2495,10 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2514,10 +2516,10 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2535,10 +2537,10 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2556,10 +2558,10 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2577,10 +2579,10 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2598,10 +2600,10 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2619,10 +2621,10 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2640,10 +2642,10 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2661,10 +2663,10 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2682,10 +2684,10 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2703,10 +2705,10 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2724,10 +2726,10 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -2745,10 +2747,10 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2766,10 +2768,10 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2787,10 +2789,10 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2829,10 +2831,10 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2850,10 +2852,10 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2871,10 +2873,10 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2892,10 +2894,10 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2913,10 +2915,10 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2934,10 +2936,10 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2955,10 +2957,10 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2976,10 +2978,10 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2997,10 +2999,10 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3014,14 +3016,14 @@
         <v>49</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3035,14 +3037,14 @@
         <v>52</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3056,14 +3058,14 @@
         <v>53</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -3077,14 +3079,14 @@
         <v>54</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3098,14 +3100,14 @@
         <v>407</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3119,14 +3121,14 @@
         <v>55</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -3140,14 +3142,14 @@
         <v>408</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -3161,14 +3163,14 @@
         <v>56</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3182,14 +3184,14 @@
         <v>409</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3203,14 +3205,14 @@
         <v>57</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -3224,14 +3226,14 @@
         <v>410</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3249,10 +3251,10 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3270,10 +3272,10 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3291,10 +3293,10 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3312,10 +3314,10 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3333,10 +3335,10 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3354,10 +3356,10 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3375,10 +3377,10 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -3396,10 +3398,10 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -3417,10 +3419,10 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -3438,10 +3440,10 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3459,10 +3461,10 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3480,10 +3482,10 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3501,10 +3503,10 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -3522,10 +3524,10 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3543,10 +3545,10 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -3564,10 +3566,10 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -3585,10 +3587,10 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3605,11 +3607,11 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" ca="1" si="1">RANDBETWEEN(0,10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F67:F130" ca="1" si="1">RANDBETWEEN(0,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -3648,10 +3650,10 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3669,10 +3671,10 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3690,10 +3692,10 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -3756,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3774,10 +3776,10 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3795,10 +3797,10 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3816,10 +3818,10 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3837,10 +3839,10 @@
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -3858,10 +3860,10 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -3879,10 +3881,10 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -3900,10 +3902,10 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -3921,10 +3923,10 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -3942,10 +3944,10 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3963,10 +3965,10 @@
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -3984,10 +3986,10 @@
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -4005,10 +4007,10 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4026,10 +4028,10 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -4047,10 +4049,10 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -4068,10 +4070,10 @@
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -4089,10 +4091,10 @@
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -4110,10 +4112,10 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -4152,10 +4154,10 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4173,10 +4175,10 @@
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4194,10 +4196,10 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4236,10 +4238,10 @@
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -4257,10 +4259,10 @@
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -4278,10 +4280,10 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -4299,10 +4301,10 @@
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -4320,10 +4322,10 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -4341,10 +4343,10 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -4362,10 +4364,10 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -4383,10 +4385,10 @@
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -4407,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -4425,10 +4427,10 @@
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -4446,10 +4448,10 @@
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -4467,10 +4469,10 @@
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -4488,10 +4490,10 @@
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -4530,10 +4532,10 @@
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -4551,10 +4553,10 @@
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -4575,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -4593,10 +4595,10 @@
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -4614,10 +4616,10 @@
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -4635,10 +4637,10 @@
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -4656,10 +4658,10 @@
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -4677,10 +4679,10 @@
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -4701,7 +4703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -4719,10 +4721,10 @@
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -4740,10 +4742,10 @@
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -4761,10 +4763,10 @@
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -4782,10 +4784,10 @@
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -4845,10 +4847,10 @@
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -4866,10 +4868,10 @@
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -4887,10 +4889,10 @@
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -4929,10 +4931,10 @@
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -4949,11 +4951,11 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F172" ca="1" si="2">RANDBETWEEN(0,10)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F131:F172" ca="1" si="2">RANDBETWEEN(0,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -4992,10 +4994,10 @@
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -5013,10 +5015,10 @@
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -5034,10 +5036,10 @@
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -5055,10 +5057,10 @@
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -5076,10 +5078,10 @@
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -5097,10 +5099,10 @@
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -5118,10 +5120,10 @@
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -5139,10 +5141,10 @@
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>123</v>
       </c>
@@ -5160,10 +5162,10 @@
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>123</v>
       </c>
@@ -5181,10 +5183,10 @@
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>123</v>
       </c>
@@ -5202,10 +5204,10 @@
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>123</v>
       </c>
@@ -5223,10 +5225,10 @@
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>123</v>
       </c>
@@ -5244,10 +5246,10 @@
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>123</v>
       </c>
@@ -5268,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>123</v>
       </c>
@@ -5286,10 +5288,10 @@
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -5307,10 +5309,10 @@
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>123</v>
       </c>
@@ -5328,10 +5330,10 @@
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>123</v>
       </c>
@@ -5349,10 +5351,10 @@
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -5370,10 +5372,10 @@
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -5391,10 +5393,10 @@
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>123</v>
       </c>
@@ -5412,10 +5414,10 @@
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>123</v>
       </c>
@@ -5433,10 +5435,10 @@
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>123</v>
       </c>
@@ -5454,10 +5456,10 @@
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>123</v>
       </c>
@@ -5475,10 +5477,10 @@
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>123</v>
       </c>
@@ -5496,10 +5498,10 @@
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -5517,10 +5519,10 @@
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>214</v>
       </c>
@@ -5538,10 +5540,10 @@
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>214</v>
       </c>
@@ -5559,10 +5561,10 @@
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -5580,10 +5582,10 @@
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>214</v>
       </c>
@@ -5601,10 +5603,10 @@
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>214</v>
       </c>
@@ -5622,10 +5624,10 @@
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>214</v>
       </c>
@@ -5643,10 +5645,10 @@
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>214</v>
       </c>
@@ -5664,10 +5666,10 @@
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -5685,10 +5687,10 @@
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -5706,10 +5708,10 @@
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -5727,10 +5729,10 @@
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -5748,10 +5750,10 @@
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>214</v>
       </c>
@@ -5769,10 +5771,10 @@
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>64</v>
       </c>
@@ -5790,10 +5792,10 @@
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>64</v>
       </c>
@@ -5811,10 +5813,11 @@
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F172"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/template/activity_table.xlsx
+++ b/template/activity_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cns\navi-master\navi\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DOCUME~1\MobaXterm\slash\RemoteFiles\2689412_13_66\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADA4E31-E33E-4631-A018-EEC836492459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="9550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activity_list" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">activity_list!$A$1:$F$172</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1278,7 +1279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2189,23 +2190,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.9140625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="1999" max="2000" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="1999" max="2000" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>230</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2264,10 +2265,10 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="0">RANDBETWEEN(0,2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2306,10 +2307,10 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2348,10 +2349,10 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2369,10 +2370,10 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2390,10 +2391,10 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2411,10 +2412,10 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2432,10 +2433,10 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2453,10 +2454,10 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2474,10 +2475,10 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2495,10 +2496,10 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2516,10 +2517,10 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2537,10 +2538,10 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2579,10 +2580,10 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2621,10 +2622,10 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2642,10 +2643,10 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2663,10 +2664,10 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2705,10 +2706,10 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2726,10 +2727,10 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -2747,10 +2748,10 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2768,10 +2769,10 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2789,10 +2790,10 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2831,10 +2832,10 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2852,10 +2853,10 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2873,10 +2874,10 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2894,10 +2895,10 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2915,10 +2916,10 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2936,10 +2937,10 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2957,10 +2958,10 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2978,10 +2979,10 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2999,10 +3000,10 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3019,11 +3020,10 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3040,11 +3040,10 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3061,11 +3060,10 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -3082,11 +3080,10 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3104,10 +3101,10 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3128,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -3146,10 +3143,10 @@
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -3167,10 +3164,10 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3188,10 +3185,10 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3212,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -3230,10 +3227,10 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3251,10 +3248,10 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3293,10 +3290,10 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3317,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3335,10 +3332,10 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3356,10 +3353,10 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3377,10 +3374,10 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -3398,10 +3395,10 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -3419,10 +3416,10 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -3440,10 +3437,10 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3464,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3482,10 +3479,10 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3503,10 +3500,10 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3548,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -3566,10 +3563,10 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -3587,10 +3584,10 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3608,10 +3605,10 @@
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" ca="1" si="1">RANDBETWEEN(0,2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3629,10 +3626,10 @@
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -3650,10 +3647,10 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3671,10 +3668,10 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3692,10 +3689,10 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3713,10 +3710,10 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -3734,10 +3731,10 @@
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -3755,10 +3752,10 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3779,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3797,10 +3794,10 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3842,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -3860,10 +3857,10 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -3881,10 +3878,10 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -3902,10 +3899,10 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -3923,10 +3920,10 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -3944,10 +3941,10 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3968,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -3989,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -4007,10 +4004,10 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4028,10 +4025,10 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -4049,10 +4046,10 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -4070,10 +4067,10 @@
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -4091,10 +4088,10 @@
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -4112,10 +4109,10 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -4136,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -4154,10 +4151,10 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4175,10 +4172,10 @@
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -4217,10 +4214,10 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4238,10 +4235,10 @@
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -4280,10 +4277,10 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -4301,10 +4298,10 @@
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -4322,10 +4319,10 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -4343,10 +4340,10 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -4364,10 +4361,10 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -4385,10 +4382,10 @@
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -4406,10 +4403,10 @@
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -4427,10 +4424,10 @@
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -4472,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -4493,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -4514,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -4532,10 +4529,10 @@
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -4553,10 +4550,10 @@
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -4595,10 +4592,10 @@
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -4616,10 +4613,10 @@
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -4637,10 +4634,10 @@
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -4658,10 +4655,10 @@
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -4679,10 +4676,10 @@
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -4703,7 +4700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -4721,10 +4718,10 @@
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -4745,7 +4742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -4763,10 +4760,10 @@
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -4784,10 +4781,10 @@
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4805,10 +4802,10 @@
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4826,10 +4823,10 @@
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -4847,10 +4844,10 @@
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -4871,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -4892,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -4913,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -4931,10 +4928,10 @@
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -4952,10 +4949,10 @@
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F172" ca="1" si="2">RANDBETWEEN(0,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -4973,10 +4970,10 @@
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -4994,10 +4991,10 @@
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -5015,10 +5012,10 @@
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -5036,10 +5033,10 @@
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -5060,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -5078,10 +5075,10 @@
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -5099,10 +5096,10 @@
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -5144,7 +5141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>123</v>
       </c>
@@ -5162,10 +5159,10 @@
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>123</v>
       </c>
@@ -5183,10 +5180,10 @@
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>123</v>
       </c>
@@ -5204,10 +5201,10 @@
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>123</v>
       </c>
@@ -5225,10 +5222,10 @@
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>123</v>
       </c>
@@ -5246,10 +5243,10 @@
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>123</v>
       </c>
@@ -5267,10 +5264,10 @@
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>123</v>
       </c>
@@ -5288,10 +5285,10 @@
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -5309,10 +5306,10 @@
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>123</v>
       </c>
@@ -5330,10 +5327,10 @@
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>123</v>
       </c>
@@ -5351,10 +5348,10 @@
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -5375,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -5393,10 +5390,10 @@
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>123</v>
       </c>
@@ -5414,10 +5411,10 @@
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>123</v>
       </c>
@@ -5435,10 +5432,10 @@
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>123</v>
       </c>
@@ -5456,10 +5453,10 @@
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>123</v>
       </c>
@@ -5477,10 +5474,10 @@
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>123</v>
       </c>
@@ -5498,10 +5495,10 @@
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -5522,7 +5519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>214</v>
       </c>
@@ -5540,10 +5537,10 @@
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>214</v>
       </c>
@@ -5561,10 +5558,10 @@
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -5582,10 +5579,10 @@
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>214</v>
       </c>
@@ -5603,10 +5600,10 @@
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>214</v>
       </c>
@@ -5624,10 +5621,10 @@
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>214</v>
       </c>
@@ -5648,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>214</v>
       </c>
@@ -5666,10 +5663,10 @@
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -5687,10 +5684,10 @@
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -5708,10 +5705,10 @@
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -5750,10 +5747,10 @@
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>214</v>
       </c>
@@ -5771,10 +5768,10 @@
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>64</v>
       </c>
@@ -5795,7 +5792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>64</v>
       </c>
@@ -5813,11 +5810,11 @@
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F172"/>
+  <autoFilter ref="A1:F172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
